--- a/data/common/RSP_Rookies.xlsx
+++ b/data/common/RSP_Rookies.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancontino/Desktop/Dynasty_tools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70761B6A-2211-47F9-BB4F-E96F87F483F7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$53</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
   <si>
     <t>Player</t>
   </si>
@@ -1456,6 +1456,191 @@
   </si>
   <si>
     <t>RSP 2023-2025 Rank</t>
+  </si>
+  <si>
+    <t>Jalen Milroe</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Will Howard</t>
+  </si>
+  <si>
+    <t>Quinn Ewers</t>
+  </si>
+  <si>
+    <t>Refined Johnny Manziel, Peak outcome - Joe Burrow</t>
+  </si>
+  <si>
+    <t>Contributor - on the cusp of rotational starter</t>
+  </si>
+  <si>
+    <t>Strengths:
+Playmaking &amp; Improvisation: Excellent at buying time both inside and outside the pocket, adept at making off-script, against-the-grain throws while moving ("playground creator").
+Mobility &amp; Pocket Navigation: Possesses excellent movement skills, effectively senses and maneuvers away from pressure (identifies blitzes, climbs, spins, sidesteps), and can create space. Quick enough to escape and reset.
+Arm Talent: Has the required arm strength for the NFL, capable of making most throws, including velocity throws to the boundary, deep pinpoint passes (63-65 yards), and touch throws (moon balls).
+Release &amp; Platform Variety: Quick, whip-like release motion that generates velocity. Can throw effectively from various platforms, including off his back foot (shallow) and on the move. Creative release under pressure on RPOs.
+Manipulation: Effectively uses play-action fakes (well-timed, good extension) and pump fakes (shoulder, flash of ball, shovel fake) to manipulate defenders.
+Clean Pocket Play: Can read leverage well, split defenders downfield, and deliver with touch and velocity when kept clean. Generally aware of peripheral defenders in these situations.
+RPO Execution: Quick to pivot, set, and deliver the ball accurately and fast on RPOs, even under pressure.
+Running Ability: Capable of gaining yards and breaking big plays as a runner, shows agility to make defenders miss, and possesses an effective stiff arm.
+Durability: No significant injury history noted.
+Weaknesses:
+Footwork Inconsistency: Drop footwork (especially from pistol/shotgun) needs significant tightening; it can be fragmented, slow, bouncy, and lack fluidity, potentially impacting timing in NFL systems. Stance can be too wide, leading to high throws. Cleats sometimes leave the ground during throws.
+Decision-Making Under Pressure/Risk Tolerance: Prone to holding the ball too long, especially in scoring range, leading to avoidable sacks. Takes sizable risks (reversing field, backing away from pressure, high-risk across-body throws) before throwing the ball away. Needs to learn limits and play a more mature game.
+Red Zone Issues: Lapses in awareness of peripheral defenders are more frequent and impactful in the red zone, leading to interceptions or near-interceptions. Can try too hard to make a play in scoring range.
+Accuracy Inconsistencies: While possessing good arm talent, accuracy issues arise, likely linked to footwork. Intermediate mobile accuracy is often just "catchable," not pinpoint. Vertical accuracy towards the boundary under pressure is hit-or-miss. Off-platform accuracy beyond shallow zones is inconsistent.
+Mechanical Refinements: While cautioning against overhauling, the report notes the ball drops low during the draw-back phase, and the upper body mechanics could be tighter.
+Unnecessary Drifting: Has a tendency to drift, particularly to the left, even when unnecessary, which can close off parts of the field and lead to forced throwaways when check-downs might be available.
+Ball Security (Situational): While generally good, not switching the ball to his boundary arm when breaking left makes him vulnerable to fumbles from backside pursuit near the elbow.
+Sliding: Does not slide, exposing himself to unnecessary hits as a runner.
+Player Comparisons:
+Official Spectrum: Joe Burrow (high-end potential ceiling if technical/mental aspects develop) – Johnny Manziel / Zach Wilson (lower-end outcome/stylistic comparison).
+Elaborated Comparisons:
+Patrick Mahomes: Superficial comparison due to off-script playmaking ability (also compared superficially to Drew Lock and Zach Wilson in the past).
+Johnny Manziel: Closer stylistic comparison due to off-script, creative play style. Ward is seen as having a better off-field mindset. A "refined Manziel" is presented as a potentially compelling outcome.
+Joe Burrow: Represents the absolute peak potential if Ward becomes technically sharp and masters processing NFL defenses.</t>
+  </si>
+  <si>
+    <t>Better Jalen Hurts at this stage, Malik Wallis as a pospect, Lamar Jackson, Dan Marino</t>
+  </si>
+  <si>
+    <t>Strengths:
+Pocket Presence &amp; Manipulation: Considered the best pocket player in the class by this evaluator. Possesses "quiet feet" (Lamar Jackson comparison) for subtle, efficient movements. Excellent at manipulating LBs and safeties, even late in the play and under duress. Efficient mover (climb, spin, sidestep, flush) without disrupting offensive structure.
+Release Mechanics: Extremely compact and efficient upper-body release ("most compact in this class," compared favorably to Dan Marino). Draws arm straight back, allowing quick delivery even in tight pockets (truncated/three-quarter motion).
+Arm Strength &amp; Velocity: Can deliver throws 40-48 yards to the opposite hash on a line. Capable of pinpoint deep throws (58 yards near-side flat mentioned). Generates significant torque.
+Mobility &amp; Running Ability: Game-breaking speed ("fastest QB in this draft"). Excellent acceleration, curvilinear movement ("like a big-play scat back"), sudden cuts, and ability to weave through the field (mentions 21 mph speed). Presses LOS effectively, bounces outside, transitions downhill quickly, uses spins/hip shifts. Knows how to slide. Considered a better runner than Jalen Hurts (at the same stage) by this evaluator.
+Decision-Making: Generally a good decision-maker, with gaffes more typical of NFL starters than "Hero Ball." Identifies pre-snap pressure and likely coverage holes. Aware of peripheral defenders and uses placement to protect receivers. Aggressive attacking leverage up the seam. Quick processor under pressure, works through reads. Wise in situational football (e.g., two-minute drill).
+Accuracy Under Pressure: Capable of pinpoint accuracy deep (48 yards) with pressure in face. Accurate off-platform in shallow/intermediate ranges, even when hit. Excellent mobile accuracy, including deep pinpoint throws (53 yards back-shoulder mentioned). Understands when to take velocity off throws under pressure.
+Play Fakes &amp; Pump Fakes: Good detail on read fakes. Uses pump fakes effectively to freeze defenders both from pocket and on the move, often paired with eye manipulation.
+Poise &amp; Intangibles: Handles pressure well, waits appropriately before moving. Mature handling of pre-draft process noted. Won academic Heisman. Showed wisdom in handling bad snap near own endzone.
+Durability: No significant injuries noted.
+Weaknesses:
+Lack of Touch: Significant weakness. Needs to develop touch and learn to put more air/arc under passes. Struggles significantly with fades (throws on a line), honey-hole shots (Cover 2), and back-shoulder throws requiring touch, often overshooting these targets.
+Lower Body Mechanics (Situational): While generally good, lower body mechanics need refinement for touch/trajectory throws. Feet aren't always aligned properly after climbing under pressure, causing some vertical throws to sail.
+Ball Security (Situational): Can be loose with the ball when initially carrying it before seeing pursuit. When breaking the pocket, can carry the ball wide or like a triple-option QB, making him susceptible to strips from backside pursuit.
+Awareness of Undercutting Defenders: Does not consistently see shallow flat/boundary defenders sliding to undercut throws (both shallow and deeper crossing routes). Needs more awareness of this ancillary coverage.
+Holding Ball Post-Scramble (Minor): Has occasional lapses holding the ball too long after making the first defender miss and breaking the pocket (noted in black zone). Worth monitoring but not deemed a major issue yet.
+Play Fake Nuance: Fakes are good but could use more nuance/detail to be truly deceptive.
+Acclimation to NFL: Will need time to adjust to NFL playbook size and complexity of defensive schemes/disguises compared to college.
+Player Comparisons:
+Official Spectrum: Jalen Hurts (High End) – Malik Willis (Low End)
+Elaborated Comparisons:
+Jalen Hurts: Strong comparison. The evaluator sees Milroe as potentially a better runner, pocket manager, and game manager than Hurts was coming out, but notes Hurts' work ethic/obsession is a key unknown variable for Milroe.
+Malik Willis: Used more as a prospect archetype comparison – a toolsy, mobile QB needing development, representing what evaluators hoped Willis would be, rather than a direct stylistic comp to Willis' pro performance. Milroe is seen as less of a long-term project than Jordan Love but not as NFL-ready as Lamar Jackson was.
+Lamar Jackson: Compared specifically for his "quiet feet" and subtle pocket movement.
+Dan Marino: Compared favorably regarding the compactness and efficiency of his upper-body release mechanics.</t>
+  </si>
+  <si>
+    <t>Baker Mayfield (High End) – Tua Tagovailoa / Geno Smith (Mid-Range/Stylistic) – Spencer Rattler (Low End/Score Comp)</t>
+  </si>
+  <si>
+    <t>Strengths:
+Decision-Making &amp; Processing (Potential): Generally presented as a good decision-maker (compared favorably to Rattler in this regard). Shows strong anticipation in the quick game. Patient passer, particularly letting slow-developing intermediate routes open up in zone. Can identify pre-snap cushion for efficient throws. Shows ability to learn quickly from mistakes/coverage looks (game-to-game or even within a game). His mind for the game and work ethic are highlighted as potentially his most crucial traits for success.
+Distributor/Timing Passer: At his best as a distributor, especially in the quick game. Pacing can be an asset. Has promise as a timing passer in the middle of the field and fits well conceptually in West Coast (Kubiak/Stefanski/McVay/Shanahan) schemes.
+Pocket Skills &amp; Poise: Possesses enough pocket skills to buy time and create both on- and off-script. Patient in the pocket. Well-defined drops (especially short drops) and finishes balanced. Holds one side of the field to set up throws to the other and will stand in against pressure to execute. Takes hits to deliver big plays.
+Accuracy (Situational): Strong accuracy in the quick game. Good thrower to the opposite hash (pinpoint short-to-vertical ranges). Can layer throws over LBs. Pinpoint accuracy on boundary throws (40-44 yards) vs tight man. Pinpoint mobile accuracy moving right (15-20 yards) and under pressure (18 yards). Good off-platform accuracy (catchable short/intermediate, pinpoint intermediate under pressure). Places ball protectively (low/away) under pressure.
+Technique (Upper Body/Drops): Efficient, compact, over-the-shoulder release with a high release point and good weight transfer. Well-defined and generally well-paced drops (though 3-step needs quicker pacing). Effective sidearm release for RPO/screens. Good play-action fakes (thorough exchange/fakes).
+Scrambling (Evasiveness): Uses stop-start moves effectively to make defenders overrun angles. Strong enough to pull through reaches. Has short-area quickness in traffic.
+Weaknesses:
+Athleticism/Mobility Limits: Not a dynamic mover (compared athletically to Mayfield/Smith, not Allen/Hurts/Jackson). Lacks high-end mobility for designed sprints and can't outrun edge pressure if it gets close late. Re-start quickness after stopping is "not notable." Moves like a "slow Kyler Murray." May enter the league overconfident in athletic limits.
+Decision-Making (Specific Situations): Struggles identifying leverage advantages quickly on deep middle vertical routes. Prone to targeting intermediate routes breaking back to him (boundary) when a defender has leverage over the top, especially from the far hash and critically, in his own red zone (black zone). Needs to mature as a game manager, be more conservative, and minimize risk in these spots.
+Processing Speed (Specific Situations): Not proficient reading sideline-to-sideline quickly. Can be faster identifying reads even on same-side quick concepts (e.g., double slants). Not strong identifying or pulling the trigger on tight windows over flat defenders.
+Holding Ball Too Long: Can hold the ball too long while looking downfield after abandoning the pocket, leading to avoidable sacks (a habit noted in the middle of the field and red zone). Needs to throw the ball away earlier, especially on designed sprints where his mobility is limited.
+Ball Security: Significant lapses when breaking the pocket – ball drops low and is waved around, leading to forced fumbles by pursuit. Also cited as responsible for multiple bad snaps in the red zone.
+Lack of Middle Field Manipulation: Does not demonstrate manipulation of defenders (LBs/safeties) in the middle of the field with eyes or fakes.
+Arm Talent (Adequate, Not Elite): Has the arm for vertical shots, but arm talent isn't seen as a "difference-making" trait. Accuracy deep requires receiver separation/slowing down at 50+ yards. Needs better trajectory (lower) on some deep boundary throws for pinpoint placement.
+Technique (Lower Body/Fakes): Front foot pointing on out-breaking routes needs improvement (can lead to ball placement behind target/strain). Pump fakes lack violence/effectiveness.
+NFL Readiness: Evaluator explicitly states he shouldn't be thrust into starting role immediately and needs a good situation (OL, run game) to potentially succeed early.
+Player Comparisons:
+Official Spectrum: Baker Mayfield (High End) – Tua Tagovailoa / Geno Smith (Mid-Range/Stylistic) – Spencer Rattler (Low End/Score Comp)
+Elaborated Comparisons:
+Geno Smith / Tua Tagovailoa: Represents his "aspiring" passing style – distributor, quick game, anticipation-based.
+Baker Mayfield / Geno Smith: Used as the "archetypical wheelhouse" for his athleticism – not elite runners, needed time to calibrate physical limits in the NFL. Sanders is expected to need similar calibration.
+Spencer Rattler: Compared on the Depth of Talent Score, but noted as a different style (Rattler = better athlete, Sanders = better decision-maker).
+(Slow) Kyler Murray: Used to describe his scrambling movement style (unorthodox but lacking elite quickness).</t>
+  </si>
+  <si>
+    <t>Jake Plummer / J.J. McCarthy (High End / Stylistic) – Drew Lock / Zach Wilson (Low End / Volatility)</t>
+  </si>
+  <si>
+    <t>Strengths:
+Short-to-Intermediate Accuracy &amp; Processing: Accuracy is solid-to-good within 25-30 yards. Shows pinpoint accuracy in the middle of the field under 25 yards and can layer throws. Processes well in this range, capable of working through 2-3 reads across the field before pressure arrives or checking down. Stellar shallow opposite-hash accuracy.
+Mobility &amp; Scrambling: Maneuvers well from pressure, effectively climbs the pocket (hitches, running climb), sidesteps, and rolls. A chain-moving runner who can buy time effectively before deciding to run. Can avoid multiple pressure points. Pulls through tackles, shows good bend/weave in traffic, and transitions downhill quickly. Better than just a chain-mover, capable of 15-30 yard gains. Knows how to slide.
+Pressure Handling: Identifies pre-snap pressure (inside/outside) and generally responds effectively to various pressure types, including some multi-player pressures. Will stand and deliver against interior pressure.
+Game Management (Situational): Shows wisdom in the red zone, willing to "eat the ball" and protect field goal position if a scripted play isn't there post-snap. Protects receivers with placement in the short/intermediate range. Throws the ball away appropriately when pinned to the boundary.
+Mechanics (Baseline): Setup, stance, and release lack significant flaws from a basic perspective. Uses multiple arm angles. Drawback is efficient. Footwork alignment is fundamentally sound when undisturbed.
+Arm Strength: Possesses enough arm strength to deliver velocity throws downfield (mentions 54-yard post).
+Durability: No missed games in the past three seasons after a freshman year meniscus injury.
+Weaknesses:
+Deep Accuracy (Major Issue): Accuracy significantly deteriorates beyond 25-30 yards, becoming "scattershot" (overthrows, underthrows, inaccurate placement). This is the primary concern and key developmental hurdle.
+Accuracy Under Duress (Deep): Requires undisturbed feet and a narrower base for downfield accuracy (30-45 yards). When forced to maneuver, his feet get too wide, exacerbating downfield accuracy issues (catchable at best). Must develop precise climbing footwork. The lack of obvious mechanical flaws makes fixing this harder (compared negatively to Jake Locker).
+Decision-Making (Situational): Can waste energy scrambling for short gains when an earlier checkdown offered similar yardage with less risk. Some game management decisions lack savvy (needs experience). Occasionally makes poor decisions on rolls instead of throwing the ball away (e.g., trying to cut back inside on 3rd and short when too far out).
+Ball Security (Running): Ball can become loose when scrambling if he hasn't fully transitioned to a runner mindset. Doesn't always tuck the ball to his boundary arm, leading to fumbles (including a pivotal one).
+Technique (Refinements): Footwork pacing can be fragmented on 3-step drops, hurting timing/accuracy vs pressure. 7-step drops can be slow/lack uniformity. Play fakes are adequate but could use more sell. Pump fakes lack violence; appears unconfident with grip on forceful fakes. Takes contact with throwing shoulder sometimes when running. Defaults to right arm carrying ball even when left is advisable.
+Pressure Recognition (Minor): Can be a step late identifying Green Dog blitzes. Has more difficulty evading pressure when two rushers arrive simultaneously.
+NFL Readiness/Ceiling: Seen as a projection requiring development, particularly the vertical passing game. Not advisable to start early; needs a good situation (veteran QB, supportive system/talent). Success heavily depends on work ethic and unlocking deep accuracy. Ideal outcome (develops while playing) considered unlikely.
+Player Comparisons:
+Official Spectrum: Jake Plummer / J.J. McCarthy (High End / Stylistic) – Drew Lock / Zach Wilson (Low End / Volatility)
+Elaborated Comparisons:
+Jake Locker: Used as a cautionary comparison due to similar issues – decent mechanics but significant struggles with consistent downfield accuracy in the NFL.
+Drew Lock / J.J. McCarthy: Compared in terms of being prospects whose pre-draft hype feels like a projection of potential rather than current polished product (seen as more realistic/less risky projections than Zach Wilson was).
+Zach Wilson: Represents the lower end of the spectrum, likely indicating the potential bust factor if development stalls.
+Jake Plummer: Listed as a high-end comparison on the spectrum.</t>
+  </si>
+  <si>
+    <t>Official Spectrum: Josh Allen / Andrew Luck (High End / Toolsy Potential) – Tim Tebow / Bryce Petty (Low End / Limited Passer)
+Elaborated Comparison: The "Frankenstein" analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard ("Young Frankenstein" - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.</t>
+  </si>
+  <si>
+    <t>Strengths:
+Physical Tools &amp; Foundation: Possesses good size (6'4", 236 lbs). Arm strength is an asset, capable of stretching the field vertically. Mobility is a strength; can escape the pocket, turn the corner on linebackers, break tackles, and gain yards as a runner. Has a good foundational technique in drops, play fakes, pump fakes, and release mechanics requiring only minor tweaks.
+Pocket Manipulation &amp; Poise: Generally drops into a balanced stance with good footwork. Can manipulate defenses by opening his frame during drops. Uses eyes effectively to hold underneath defenders (LBs) to open throwing lanes behind them, showing patience. Can freeze blitzers with stop-start moves.
+Arm Talent (Specific Situations): Shows confidence (bordering on arrogance) in his velocity to fit throws into tight windows, particularly opposite hash throws vs. Cover 2. Has the range for 50-55 yard throws to the opposite boundary. Can "toss" the ball effectively to wide-open vertical targets without needing pinpoint placement. Good touch/placement on opposite boundary fades. Pinpoint accuracy under pressure in specific scenarios (off back foot, mobile, opposite hash curl while hit).
+Mobility &amp; Running: Effective scrambler who can extend plays. Earns chain-moving gains as a runner, showing acceleration to get the edge and balance/strength to break tackles. Improved nuance in selling play-action fakes over time.
+Processing (Basic): Can cycle through 1-2 reads and find the check-down in a timely manner. Accounts for peripheral defenders on first reads from a clean pocket. Identifies pre-snap and post-snap pressure (interior, edge, some DB pressure). Feels blindside pressure appropriately after multiple reads.
+Durability: No significant missed time reported over a five-year career.
+Weaknesses:
+Decision-Making &amp; Risk Assessment: Described as a "mixed bag." Confidence borders on arrogance, leading him to attempt throws into windows/leverage situations that may not work in the NFL. Prone to forcing throws against unfavorable leverage, especially on longer drops when a checkdown is available in space.
+Coverage Recognition/Execution: Struggles significantly with recognizing defenders "squatting" over the top of routes or in throwing lanes (particularly on quick screens), leading to interceptions/pick-sixes. Has difficulty seeing/layering throws over underneath zone defenders and dropping linebackers in the intermediate middle field, resulting in incompletions, INTs, and near-INTs. Doesn't consistently see shallow peripheral defenders peeling off to undercut throws.
+Anticipation: Needs to throw intermediate routes with more anticipation; often releases as the receiver exits the break rather than entering it, giving defenders extra time to react.
+Greediness/Forcing Plays: Lapses on deeper drops where he forgoes an open checkdown after his initial reads aren't open, instead opting to force a covered read or scramble into a prohibitive throw. Attempts throws with pressure in his face where he can't step into it, leading to inaccurate passes and turnover risks.
+Throwing Mechanics (Minor): While the foundation is good, needs more hip activation for additional torque. Shoulder fakes lack sufficient motion. Play fakes could have more consistent sell/bend.
+Ball Security (Minor): Elbow can be loose from his frame when carrying the ball while scrambling.
+Game Management: Doesn't throw the ball away often (though context suggests few opportunities arose in games watched). Needs to slide feet-first more consistently instead of leading with torso/shoulder.
+Player Comparisons:
+Official Spectrum: Josh Allen / Andrew Luck (High End / Toolsy Potential) – Tim Tebow / Bryce Petty (Low End / Limited Passer)
+Elaborated Comparison: The "Frankenstein" analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard ("Young Frankenstein" - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.
+Overall: Howard presents as a physically gifted quarterback with good arm strength and mobility, fitting the mold of players like Josh Allen or Andrew Luck in terms of raw tools. However, significant weaknesses in decision-making, coverage recognition (especially underneath defenders and squatting coverage), anticipation, and occasional forcing of plays limit his current effectiveness and place him closer to the Tebow/Petty end of the spectrum in terms of potential floor if these issues aren't corrected. He's viewed as having potential as a capable backup with upside, but needs significant development in the mental/processing aspects of the game to have a shot at starting.</t>
+  </si>
+  <si>
+    <t>Official Spectrum: Brock Purdy (High End - efficient system QB) – C.J. Beathard (Low End - career backup/spot starter)</t>
+  </si>
+  <si>
+    <t>Strengths:
+Fundamentals &amp; Mechanics: Possesses solid fundamentals with good, precise drops (3, 5, 7-step), competent release mechanics (efficient drawback, good rotation), and effective ball fakes (read, quick turn, reverse/sweep detail, shoulder/pump fakes). Shows conceptual and technical control handling pressure off various drops.
+Short-to-Vertical Accuracy (up to ~42 yards): Arm talent and accuracy are best in the shallow, intermediate, and vertical (defined as 28-42 yards) ranges. Competent-to-good in short/intermediate. Vertical accuracy is more catchable than pinpoint but deemed sufficient for NFL play (using Matt Ryan as context). Good opposite hash range (35-40 pinpoint, 40-45 catchable). Accurate on the move within these ranges.
+Pocket Presence &amp; Manipulation: Generally has an effective pocket clock and can accelerate it appropriately. Patient in tight pockets. Maneuvers well using flush, roll, climbs (running/hitch), and economical sidesteps. Can preemptively climb to avoid pressure. Holds safeties with eyes during drops. Shows good placement accounting for middle-field defenders in shallow zones.
+Pressure Handling: Identifies unblocked blindside edge pressure post-snap. Handles various pressure types well with controlled footwork. Delivers accurately under pressure in short-to-vertical ranges, sometimes layering throws or using inventive platforms. Finds second reads after avoiding pressure.
+Situational Awareness (Partial): Throws the ball away appropriately against unblocked/fast pressure when initial reads are covered. Shows wise red-zone management when forced out of the pocket. Places ball well for YAC on checkdowns/outlets. Can identify peeling flat defenders on first reads and make safe throws.
+Scrambling/Running: Can avoid pressure and keep eyes downfield. Pulls through reaches. Makes first defender miss in the flat. Quick enough for chain-moving gains and slides appropriately.
+Weaknesses:
+Deep Accuracy (&gt;42 yards): Accuracy significantly diminishes beyond the ~42-yard mark; described as "lacking" or "mostly inaccurate."
+Placement Nuance: While sometimes aware of peripheral coverage, placement needs refinement for complete protection (currently often partial). Boundary fade placement vs. Cover 3 needs improvement (leads receiver towards safety).
+Processing &amp; Patience: Lapses where he isn't patient enough to let coverage declare (e.g., C2 corner peeling off). Accounting for defenders is less accurate on quick checkdowns vs. initial reads. Needs to show ability to manipulate linebackers with eyes (only noted for safeties). Misses underneath defenders (flat LBs) when working through progressions under pressure.
+Pocket Clock (Situational): Needs to speed up his internal clock when facing heavy zone coverage with limited receiver options to avoid blindside pressure.
+Pre-Snap Recognition: Must improve pre-snap identification of blindside corner blitzes.
+Game Management (Black Zone): Lacks wisdom in his own end zone (black zone), holding onto the ball too long trying for an extra read after already avoiding pressure, instead of throwing it away.
+Ball Security (Breaking Pocket): Ball carriage is lower and looser than ideal when breaking the pocket.
+Durability: Significant injury history is a concern. Missed multiple games across different seasons due to shoulder (x2), oblique injuries, and had abdominal/ankle issues. (Shoulder '22, non-throwing shoulder '23, oblique '24 cost 2 games, abdominal strain '24 ended game, ankle '24 minor).
+Player Comparisons:
+Official Spectrum: Brock Purdy (High End - efficient system QB) – C.J. Beathard (Low End - career backup/spot starter)
+Elaborated Comparisons:
+Matt Ryan: Used as context to show that Ewers' effective vertical range (up to ~42 yards) is sufficient for NFL success, even if deep accuracy is lacking.
+Desmond Ridder: Ewers is viewed more favorably due to seeing leverage better, but potentially fitting a similar role (developmental backup given a chance).
+Overall Projection: The profile leans towards Ewers being a high-level backup or journeyman starter ("at best") rather than a franchise player, aligning more with the Beathard outcome unless placed in an excellent situation that accelerates his development.
+Current Date Context (April 11, 2025): As this profile likely reflects analysis from the previous season or offseason, his status entering the upcoming 2025 season (assuming he's still playing college football per the 'Ohio State '25' game tracked) would depend on his development during that time, but this profile represents a snapshot based on the games listed. The durability concerns remain relevant heading into any future season.</t>
   </si>
 </sst>
 </file>
@@ -1830,26 +2015,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +2064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +2093,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +2122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +2151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +2180,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2209,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2238,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2267,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2296,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2325,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2354,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2197,7 +2383,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2226,7 +2412,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2255,7 +2441,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2470,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2313,7 +2499,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2371,7 +2557,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2400,15 +2586,36 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20">
+        <v>79.424999999999997</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2437,7 +2644,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2466,15 +2673,33 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +2728,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2757,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2786,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2815,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2619,7 +2844,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2873,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2677,7 +2902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2706,15 +2931,33 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2743,7 +2986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2772,7 +3015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2801,7 +3044,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +3073,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2859,7 +3102,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2888,7 +3131,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -2917,7 +3160,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2946,7 +3189,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2975,7 +3218,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -3004,7 +3247,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3033,7 +3276,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3062,7 +3305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3091,7 +3334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -3120,7 +3363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3149,7 +3392,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3178,7 +3421,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3207,7 +3450,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3236,8 +3479,95 @@
         <v>215</v>
       </c>
     </row>
+    <row r="51" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s">
+        <v>222</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="H52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I50" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
+  <autoFilter ref="A1:I53" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/common/RSP_Rookies.xlsx
+++ b/data/common/RSP_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70761B6A-2211-47F9-BB4F-E96F87F483F7}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C7D15C-9B84-4044-8780-6EB1F9234B54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1476,8 +1476,24 @@
     <t>Contributor - on the cusp of rotational starter</t>
   </si>
   <si>
+    <t>Better Jalen Hurts at this stage, Malik Wallis as a pospect, Lamar Jackson, Dan Marino</t>
+  </si>
+  <si>
+    <t>Baker Mayfield (High End) – Tua Tagovailoa / Geno Smith (Mid-Range/Stylistic) – Spencer Rattler (Low End/Score Comp)</t>
+  </si>
+  <si>
+    <t>Jake Plummer / J.J. McCarthy (High End / Stylistic) – Drew Lock / Zach Wilson (Low End / Volatility)</t>
+  </si>
+  <si>
+    <t>Official Spectrum: Josh Allen / Andrew Luck (High End / Toolsy Potential) – Tim Tebow / Bryce Petty (Low End / Limited Passer)
+Elaborated Comparison: The "Frankenstein" analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard ("Young Frankenstein" - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.</t>
+  </si>
+  <si>
+    <t>Official Spectrum: Brock Purdy (High End - efficient system QB) – C.J. Beathard (Low End - career backup/spot starter)</t>
+  </si>
+  <si>
     <t>Strengths:
-Playmaking &amp; Improvisation: Excellent at buying time both inside and outside the pocket, adept at making off-script, against-the-grain throws while moving ("playground creator").
+Playmaking &amp; Improvisation: Excellent at buying time both inside and outside the pocket, adept at making off-script, against-the-grain throws while moving (playground creator).
 Mobility &amp; Pocket Navigation: Possesses excellent movement skills, effectively senses and maneuvers away from pressure (identifies blitzes, climbs, spins, sidesteps), and can create space. Quick enough to escape and reset.
 Arm Talent: Has the required arm strength for the NFL, capable of making most throws, including velocity throws to the boundary, deep pinpoint passes (63-65 yards), and touch throws (moon balls).
 Release &amp; Platform Variety: Quick, whip-like release motion that generates velocity. Can throw effectively from various platforms, including off his back foot (shallow) and on the move. Creative release under pressure on RPOs.
@@ -1490,7 +1506,7 @@
 Footwork Inconsistency: Drop footwork (especially from pistol/shotgun) needs significant tightening; it can be fragmented, slow, bouncy, and lack fluidity, potentially impacting timing in NFL systems. Stance can be too wide, leading to high throws. Cleats sometimes leave the ground during throws.
 Decision-Making Under Pressure/Risk Tolerance: Prone to holding the ball too long, especially in scoring range, leading to avoidable sacks. Takes sizable risks (reversing field, backing away from pressure, high-risk across-body throws) before throwing the ball away. Needs to learn limits and play a more mature game.
 Red Zone Issues: Lapses in awareness of peripheral defenders are more frequent and impactful in the red zone, leading to interceptions or near-interceptions. Can try too hard to make a play in scoring range.
-Accuracy Inconsistencies: While possessing good arm talent, accuracy issues arise, likely linked to footwork. Intermediate mobile accuracy is often just "catchable," not pinpoint. Vertical accuracy towards the boundary under pressure is hit-or-miss. Off-platform accuracy beyond shallow zones is inconsistent.
+Accuracy Inconsistencies: While possessing good arm talent, accuracy issues arise, likely linked to footwork. Intermediate mobile accuracy is often just catchable, not pinpoint. Vertical accuracy towards the boundary under pressure is hit-or-miss. Off-platform accuracy beyond shallow zones is inconsistent.
 Mechanical Refinements: While cautioning against overhauling, the report notes the ball drops low during the draw-back phase, and the upper body mechanics could be tighter.
 Unnecessary Drifting: Has a tendency to drift, particularly to the left, even when unnecessary, which can close off parts of the field and lead to forced throwaways when check-downs might be available.
 Ball Security (Situational): While generally good, not switching the ball to his boundary arm when breaking left makes him vulnerable to fumbles from backside pursuit near the elbow.
@@ -1499,41 +1515,8 @@
 Official Spectrum: Joe Burrow (high-end potential ceiling if technical/mental aspects develop) – Johnny Manziel / Zach Wilson (lower-end outcome/stylistic comparison).
 Elaborated Comparisons:
 Patrick Mahomes: Superficial comparison due to off-script playmaking ability (also compared superficially to Drew Lock and Zach Wilson in the past).
-Johnny Manziel: Closer stylistic comparison due to off-script, creative play style. Ward is seen as having a better off-field mindset. A "refined Manziel" is presented as a potentially compelling outcome.
+Johnny Manziel: Closer stylistic comparison due to off-script, creative play style. Ward is seen as having a better off-field mindset. A refined Manziel is presented as a potentially compelling outcome.
 Joe Burrow: Represents the absolute peak potential if Ward becomes technically sharp and masters processing NFL defenses.</t>
-  </si>
-  <si>
-    <t>Better Jalen Hurts at this stage, Malik Wallis as a pospect, Lamar Jackson, Dan Marino</t>
-  </si>
-  <si>
-    <t>Strengths:
-Pocket Presence &amp; Manipulation: Considered the best pocket player in the class by this evaluator. Possesses "quiet feet" (Lamar Jackson comparison) for subtle, efficient movements. Excellent at manipulating LBs and safeties, even late in the play and under duress. Efficient mover (climb, spin, sidestep, flush) without disrupting offensive structure.
-Release Mechanics: Extremely compact and efficient upper-body release ("most compact in this class," compared favorably to Dan Marino). Draws arm straight back, allowing quick delivery even in tight pockets (truncated/three-quarter motion).
-Arm Strength &amp; Velocity: Can deliver throws 40-48 yards to the opposite hash on a line. Capable of pinpoint deep throws (58 yards near-side flat mentioned). Generates significant torque.
-Mobility &amp; Running Ability: Game-breaking speed ("fastest QB in this draft"). Excellent acceleration, curvilinear movement ("like a big-play scat back"), sudden cuts, and ability to weave through the field (mentions 21 mph speed). Presses LOS effectively, bounces outside, transitions downhill quickly, uses spins/hip shifts. Knows how to slide. Considered a better runner than Jalen Hurts (at the same stage) by this evaluator.
-Decision-Making: Generally a good decision-maker, with gaffes more typical of NFL starters than "Hero Ball." Identifies pre-snap pressure and likely coverage holes. Aware of peripheral defenders and uses placement to protect receivers. Aggressive attacking leverage up the seam. Quick processor under pressure, works through reads. Wise in situational football (e.g., two-minute drill).
-Accuracy Under Pressure: Capable of pinpoint accuracy deep (48 yards) with pressure in face. Accurate off-platform in shallow/intermediate ranges, even when hit. Excellent mobile accuracy, including deep pinpoint throws (53 yards back-shoulder mentioned). Understands when to take velocity off throws under pressure.
-Play Fakes &amp; Pump Fakes: Good detail on read fakes. Uses pump fakes effectively to freeze defenders both from pocket and on the move, often paired with eye manipulation.
-Poise &amp; Intangibles: Handles pressure well, waits appropriately before moving. Mature handling of pre-draft process noted. Won academic Heisman. Showed wisdom in handling bad snap near own endzone.
-Durability: No significant injuries noted.
-Weaknesses:
-Lack of Touch: Significant weakness. Needs to develop touch and learn to put more air/arc under passes. Struggles significantly with fades (throws on a line), honey-hole shots (Cover 2), and back-shoulder throws requiring touch, often overshooting these targets.
-Lower Body Mechanics (Situational): While generally good, lower body mechanics need refinement for touch/trajectory throws. Feet aren't always aligned properly after climbing under pressure, causing some vertical throws to sail.
-Ball Security (Situational): Can be loose with the ball when initially carrying it before seeing pursuit. When breaking the pocket, can carry the ball wide or like a triple-option QB, making him susceptible to strips from backside pursuit.
-Awareness of Undercutting Defenders: Does not consistently see shallow flat/boundary defenders sliding to undercut throws (both shallow and deeper crossing routes). Needs more awareness of this ancillary coverage.
-Holding Ball Post-Scramble (Minor): Has occasional lapses holding the ball too long after making the first defender miss and breaking the pocket (noted in black zone). Worth monitoring but not deemed a major issue yet.
-Play Fake Nuance: Fakes are good but could use more nuance/detail to be truly deceptive.
-Acclimation to NFL: Will need time to adjust to NFL playbook size and complexity of defensive schemes/disguises compared to college.
-Player Comparisons:
-Official Spectrum: Jalen Hurts (High End) – Malik Willis (Low End)
-Elaborated Comparisons:
-Jalen Hurts: Strong comparison. The evaluator sees Milroe as potentially a better runner, pocket manager, and game manager than Hurts was coming out, but notes Hurts' work ethic/obsession is a key unknown variable for Milroe.
-Malik Willis: Used more as a prospect archetype comparison – a toolsy, mobile QB needing development, representing what evaluators hoped Willis would be, rather than a direct stylistic comp to Willis' pro performance. Milroe is seen as less of a long-term project than Jordan Love but not as NFL-ready as Lamar Jackson was.
-Lamar Jackson: Compared specifically for his "quiet feet" and subtle pocket movement.
-Dan Marino: Compared favorably regarding the compactness and efficiency of his upper-body release mechanics.</t>
-  </si>
-  <si>
-    <t>Baker Mayfield (High End) – Tua Tagovailoa / Geno Smith (Mid-Range/Stylistic) – Spencer Rattler (Low End/Score Comp)</t>
   </si>
   <si>
     <t>Strengths:
@@ -1544,40 +1527,37 @@
 Technique (Upper Body/Drops): Efficient, compact, over-the-shoulder release with a high release point and good weight transfer. Well-defined and generally well-paced drops (though 3-step needs quicker pacing). Effective sidearm release for RPO/screens. Good play-action fakes (thorough exchange/fakes).
 Scrambling (Evasiveness): Uses stop-start moves effectively to make defenders overrun angles. Strong enough to pull through reaches. Has short-area quickness in traffic.
 Weaknesses:
-Athleticism/Mobility Limits: Not a dynamic mover (compared athletically to Mayfield/Smith, not Allen/Hurts/Jackson). Lacks high-end mobility for designed sprints and can't outrun edge pressure if it gets close late. Re-start quickness after stopping is "not notable." Moves like a "slow Kyler Murray." May enter the league overconfident in athletic limits.
+Athleticism/Mobility Limits: Not a dynamic mover (compared athletically to Mayfield/Smith, not Allen/Hurts/Jackson). Lacks high-end mobility for designed sprints and cant outrun edge pressure if it gets close late. Re-start quickness after stopping is not notable. Moves like a slow Kyler Murray. May enter the league overconfident in athletic limits.
 Decision-Making (Specific Situations): Struggles identifying leverage advantages quickly on deep middle vertical routes. Prone to targeting intermediate routes breaking back to him (boundary) when a defender has leverage over the top, especially from the far hash and critically, in his own red zone (black zone). Needs to mature as a game manager, be more conservative, and minimize risk in these spots.
 Processing Speed (Specific Situations): Not proficient reading sideline-to-sideline quickly. Can be faster identifying reads even on same-side quick concepts (e.g., double slants). Not strong identifying or pulling the trigger on tight windows over flat defenders.
 Holding Ball Too Long: Can hold the ball too long while looking downfield after abandoning the pocket, leading to avoidable sacks (a habit noted in the middle of the field and red zone). Needs to throw the ball away earlier, especially on designed sprints where his mobility is limited.
 Ball Security: Significant lapses when breaking the pocket – ball drops low and is waved around, leading to forced fumbles by pursuit. Also cited as responsible for multiple bad snaps in the red zone.
 Lack of Middle Field Manipulation: Does not demonstrate manipulation of defenders (LBs/safeties) in the middle of the field with eyes or fakes.
-Arm Talent (Adequate, Not Elite): Has the arm for vertical shots, but arm talent isn't seen as a "difference-making" trait. Accuracy deep requires receiver separation/slowing down at 50+ yards. Needs better trajectory (lower) on some deep boundary throws for pinpoint placement.
+Arm Talent (Adequate, Not Elite): Has the arm for vertical shots, but arm talent isnt seen as a difference-making trait. Accuracy deep requires receiver separation/slowing down at 50+ yards. Needs better trajectory (lower) on some deep boundary throws for pinpoint placement.
 Technique (Lower Body/Fakes): Front foot pointing on out-breaking routes needs improvement (can lead to ball placement behind target/strain). Pump fakes lack violence/effectiveness.
-NFL Readiness: Evaluator explicitly states he shouldn't be thrust into starting role immediately and needs a good situation (OL, run game) to potentially succeed early.
+NFL Readiness: Evaluator explicitly states he shouldnt be thrust into starting role immediately and needs a good situation (OL, run game) to potentially succeed early.
 Player Comparisons:
 Official Spectrum: Baker Mayfield (High End) – Tua Tagovailoa / Geno Smith (Mid-Range/Stylistic) – Spencer Rattler (Low End/Score Comp)
 Elaborated Comparisons:
-Geno Smith / Tua Tagovailoa: Represents his "aspiring" passing style – distributor, quick game, anticipation-based.
-Baker Mayfield / Geno Smith: Used as the "archetypical wheelhouse" for his athleticism – not elite runners, needed time to calibrate physical limits in the NFL. Sanders is expected to need similar calibration.
+Geno Smith / Tua Tagovailoa: Represents his aspiring passing style – distributor, quick game, anticipation-based.
+Baker Mayfield / Geno Smith: Used as the archetypical wheelhouse for his athleticism – not elite runners, needed time to calibrate physical limits in the NFL. Sanders is expected to need similar calibration.
 Spencer Rattler: Compared on the Depth of Talent Score, but noted as a different style (Rattler = better athlete, Sanders = better decision-maker).
 (Slow) Kyler Murray: Used to describe his scrambling movement style (unorthodox but lacking elite quickness).</t>
-  </si>
-  <si>
-    <t>Jake Plummer / J.J. McCarthy (High End / Stylistic) – Drew Lock / Zach Wilson (Low End / Volatility)</t>
   </si>
   <si>
     <t>Strengths:
 Short-to-Intermediate Accuracy &amp; Processing: Accuracy is solid-to-good within 25-30 yards. Shows pinpoint accuracy in the middle of the field under 25 yards and can layer throws. Processes well in this range, capable of working through 2-3 reads across the field before pressure arrives or checking down. Stellar shallow opposite-hash accuracy.
 Mobility &amp; Scrambling: Maneuvers well from pressure, effectively climbs the pocket (hitches, running climb), sidesteps, and rolls. A chain-moving runner who can buy time effectively before deciding to run. Can avoid multiple pressure points. Pulls through tackles, shows good bend/weave in traffic, and transitions downhill quickly. Better than just a chain-mover, capable of 15-30 yard gains. Knows how to slide.
 Pressure Handling: Identifies pre-snap pressure (inside/outside) and generally responds effectively to various pressure types, including some multi-player pressures. Will stand and deliver against interior pressure.
-Game Management (Situational): Shows wisdom in the red zone, willing to "eat the ball" and protect field goal position if a scripted play isn't there post-snap. Protects receivers with placement in the short/intermediate range. Throws the ball away appropriately when pinned to the boundary.
+Game Management (Situational): Shows wisdom in the red zone, willing to eat the ball and protect field goal position if a scripted play isnt there post-snap. Protects receivers with placement in the short/intermediate range. Throws the ball away appropriately when pinned to the boundary.
 Mechanics (Baseline): Setup, stance, and release lack significant flaws from a basic perspective. Uses multiple arm angles. Drawback is efficient. Footwork alignment is fundamentally sound when undisturbed.
 Arm Strength: Possesses enough arm strength to deliver velocity throws downfield (mentions 54-yard post).
 Durability: No missed games in the past three seasons after a freshman year meniscus injury.
 Weaknesses:
-Deep Accuracy (Major Issue): Accuracy significantly deteriorates beyond 25-30 yards, becoming "scattershot" (overthrows, underthrows, inaccurate placement). This is the primary concern and key developmental hurdle.
+Deep Accuracy (Major Issue): Accuracy significantly deteriorates beyond 25-30 yards, becoming scattershot (overthrows, underthrows, inaccurate placement). This is the primary concern and key developmental hurdle.
 Accuracy Under Duress (Deep): Requires undisturbed feet and a narrower base for downfield accuracy (30-45 yards). When forced to maneuver, his feet get too wide, exacerbating downfield accuracy issues (catchable at best). Must develop precise climbing footwork. The lack of obvious mechanical flaws makes fixing this harder (compared negatively to Jake Locker).
 Decision-Making (Situational): Can waste energy scrambling for short gains when an earlier checkdown offered similar yardage with less risk. Some game management decisions lack savvy (needs experience). Occasionally makes poor decisions on rolls instead of throwing the ball away (e.g., trying to cut back inside on 3rd and short when too far out).
-Ball Security (Running): Ball can become loose when scrambling if he hasn't fully transitioned to a runner mindset. Doesn't always tuck the ball to his boundary arm, leading to fumbles (including a pivotal one).
+Ball Security (Running): Ball can become loose when scrambling if he hasnt fully transitioned to a runner mindset. Doesnt always tuck the ball to his boundary arm, leading to fumbles (including a pivotal one).
 Technique (Refinements): Footwork pacing can be fragmented on 3-step drops, hurting timing/accuracy vs pressure. 7-step drops can be slow/lack uniformity. Play fakes are adequate but could use more sell. Pump fakes lack violence; appears unconfident with grip on forceful fakes. Takes contact with throwing shoulder sometimes when running. Defaults to right arm carrying ball even when left is advisable.
 Pressure Recognition (Minor): Can be a step late identifying Green Dog blitzes. Has more difficulty evading pressure when two rushers arrive simultaneously.
 NFL Readiness/Ceiling: Seen as a projection requiring development, particularly the vertical passing game. Not advisable to start early; needs a good situation (veteran QB, supportive system/talent). Success heavily depends on work ethic and unlocking deep accuracy. Ideal outcome (develops while playing) considered unlikely.
@@ -1590,32 +1570,52 @@
 Jake Plummer: Listed as a high-end comparison on the spectrum.</t>
   </si>
   <si>
-    <t>Official Spectrum: Josh Allen / Andrew Luck (High End / Toolsy Potential) – Tim Tebow / Bryce Petty (Low End / Limited Passer)
-Elaborated Comparison: The "Frankenstein" analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard ("Young Frankenstein" - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.</t>
-  </si>
-  <si>
     <t>Strengths:
-Physical Tools &amp; Foundation: Possesses good size (6'4", 236 lbs). Arm strength is an asset, capable of stretching the field vertically. Mobility is a strength; can escape the pocket, turn the corner on linebackers, break tackles, and gain yards as a runner. Has a good foundational technique in drops, play fakes, pump fakes, and release mechanics requiring only minor tweaks.
+Pocket Presence &amp; Manipulation: Considered the best pocket player in the class by this evaluator. Possesses quiet feet (Lamar Jackson comparison) for subtle, efficient movements. Excellent at manipulating LBs and safeties, even late in the play and under duress. Efficient mover (climb, spin, sidestep, flush) without disrupting offensive structure.
+Release Mechanics: Extremely compact and efficient upper-body release (most compact in this class, compared favorably to Dan Marino). Draws arm straight back, allowing quick delivery even in tight pockets (truncated/three-quarter motion).
+Arm Strength &amp; Velocity: Can deliver throws 40-48 yards to the opposite hash on a line. Capable of pinpoint deep throws (58 yards near-side flat mentioned). Generates significant torque.
+Mobility &amp; Running Ability: Game-breaking speed (fastest QB in this draft). Excellent acceleration, curvilinear movement (like a big-play scat back), sudden cuts, and ability to weave through the field (mentions 21 mph speed). Presses LOS effectively, bounces outside, transitions downhill quickly, uses spins/hip shifts. Knows how to slide. Considered a better runner than Jalen Hurts (at the same stage) by this evaluator.
+Decision-Making: Generally a good decision-maker, with gaffes more typical of NFL starters than Hero Ball. Identifies pre-snap pressure and likely coverage holes. Aware of peripheral defenders and uses placement to protect receivers. Aggressive attacking leverage up the seam. Quick processor under pressure, works through reads. Wise in situational football (e.g., two-minute drill).
+Accuracy Under Pressure: Capable of pinpoint accuracy deep (48 yards) with pressure in face. Accurate off-platform in shallow/intermediate ranges, even when hit. Excellent mobile accuracy, including deep pinpoint throws (53 yards back-shoulder mentioned). Understands when to take velocity off throws under pressure.
+Play Fakes &amp; Pump Fakes: Good detail on read fakes. Uses pump fakes effectively to freeze defenders both from pocket and on the move, often paired with eye manipulation.
+Poise &amp; Intangibles: Handles pressure well, waits appropriately before moving. Mature handling of pre-draft process noted. Won academic Heisman. Showed wisdom in handling bad snap near own endzone.
+Durability: No significant injuries noted.
+Weaknesses:
+Lack of Touch: Significant weakness. Needs to develop touch and learn to put more air/arc under passes. Struggles significantly with fades (throws on a line), honey-hole shots (Cover 2), and back-shoulder throws requiring touch, often overshooting these targets.
+Lower Body Mechanics (Situational): While generally good, lower body mechanics need refinement for touch/trajectory throws. Feet arent always aligned properly after climbing under pressure, causing some vertical throws to sail.
+Ball Security (Situational): Can be loose with the ball when initially carrying it before seeing pursuit. When breaking the pocket, can carry the ball wide or like a triple-option QB, making him susceptible to strips from backside pursuit.
+Awareness of Undercutting Defenders: Does not consistently see shallow flat/boundary defenders sliding to undercut throws (both shallow and deeper crossing routes). Needs more awareness of this ancillary coverage.
+Holding Ball Post-Scramble (Minor): Has occasional lapses holding the ball too long after making the first defender miss and breaking the pocket (noted in black zone). Worth monitoring but not deemed a major issue yet.
+Play Fake Nuance: Fakes are good but could use more nuance/detail to be truly deceptive.
+Acclimation to NFL: Will need time to adjust to NFL playbook size and complexity of defensive schemes/disguises compared to college.
+Player Comparisons:
+Official Spectrum: Jalen Hurts (High End) – Malik Willis (Low End)
+Elaborated Comparisons:
+Jalen Hurts: Strong comparison. The evaluator sees Milroe as potentially a better runner, pocket manager, and game manager than Hurts was coming out, but notes Hurts work ethic/obsession is a key unknown variable for Milroe.
+Malik Willis: Used more as a prospect archetype comparison – a toolsy, mobile QB needing development, representing what evaluators hoped Willis would be, rather than a direct stylistic comp to Willis pro performance. Milroe is seen as less of a long-term project than Jordan Love but not as NFL-ready as Lamar Jackson was.
+Lamar Jackson: Compared specifically for his quiet feet and subtle pocket movement.
+Dan Marino: Compared favorably regarding the compactness and efficiency of his upper-body release mechanics.</t>
+  </si>
+  <si>
+    <t>Strengths:
+Physical Tools &amp; Foundation: Possesses good size (64, 236 lbs). Arm strength is an asset, capable of stretching the field vertically. Mobility is a strength; can escape the pocket, turn the corner on linebackers, break tackles, and gain yards as a runner. Has a good foundational technique in drops, play fakes, pump fakes, and release mechanics requiring only minor tweaks.
 Pocket Manipulation &amp; Poise: Generally drops into a balanced stance with good footwork. Can manipulate defenses by opening his frame during drops. Uses eyes effectively to hold underneath defenders (LBs) to open throwing lanes behind them, showing patience. Can freeze blitzers with stop-start moves.
-Arm Talent (Specific Situations): Shows confidence (bordering on arrogance) in his velocity to fit throws into tight windows, particularly opposite hash throws vs. Cover 2. Has the range for 50-55 yard throws to the opposite boundary. Can "toss" the ball effectively to wide-open vertical targets without needing pinpoint placement. Good touch/placement on opposite boundary fades. Pinpoint accuracy under pressure in specific scenarios (off back foot, mobile, opposite hash curl while hit).
+Arm Talent (Specific Situations): Shows confidence (bordering on arrogance) in his velocity to fit throws into tight windows, particularly opposite hash throws vs. Cover 2. Has the range for 50-55 yard throws to the opposite boundary. Can toss the ball effectively to wide-open vertical targets without needing pinpoint placement. Good touch/placement on opposite boundary fades. Pinpoint accuracy under pressure in specific scenarios (off back foot, mobile, opposite hash curl while hit).
 Mobility &amp; Running: Effective scrambler who can extend plays. Earns chain-moving gains as a runner, showing acceleration to get the edge and balance/strength to break tackles. Improved nuance in selling play-action fakes over time.
 Processing (Basic): Can cycle through 1-2 reads and find the check-down in a timely manner. Accounts for peripheral defenders on first reads from a clean pocket. Identifies pre-snap and post-snap pressure (interior, edge, some DB pressure). Feels blindside pressure appropriately after multiple reads.
 Durability: No significant missed time reported over a five-year career.
 Weaknesses:
-Decision-Making &amp; Risk Assessment: Described as a "mixed bag." Confidence borders on arrogance, leading him to attempt throws into windows/leverage situations that may not work in the NFL. Prone to forcing throws against unfavorable leverage, especially on longer drops when a checkdown is available in space.
-Coverage Recognition/Execution: Struggles significantly with recognizing defenders "squatting" over the top of routes or in throwing lanes (particularly on quick screens), leading to interceptions/pick-sixes. Has difficulty seeing/layering throws over underneath zone defenders and dropping linebackers in the intermediate middle field, resulting in incompletions, INTs, and near-INTs. Doesn't consistently see shallow peripheral defenders peeling off to undercut throws.
+Decision-Making &amp; Risk Assessment: Described as a mixed bag. Confidence borders on arrogance, leading him to attempt throws into windows/leverage situations that may not work in the NFL. Prone to forcing throws against unfavorable leverage, especially on longer drops when a checkdown is available in space.
+Coverage Recognition/Execution: Struggles significantly with recognizing defenders squatting over the top of routes or in throwing lanes (particularly on quick screens), leading to interceptions/pick-sixes. Has difficulty seeing/layering throws over underneath zone defenders and dropping linebackers in the intermediate middle field, resulting in incompletions, INTs, and near-INTs. Doesnt consistently see shallow peripheral defenders peeling off to undercut throws.
 Anticipation: Needs to throw intermediate routes with more anticipation; often releases as the receiver exits the break rather than entering it, giving defenders extra time to react.
-Greediness/Forcing Plays: Lapses on deeper drops where he forgoes an open checkdown after his initial reads aren't open, instead opting to force a covered read or scramble into a prohibitive throw. Attempts throws with pressure in his face where he can't step into it, leading to inaccurate passes and turnover risks.
+Greediness/Forcing Plays: Lapses on deeper drops where he forgoes an open checkdown after his initial reads arent open, instead opting to force a covered read or scramble into a prohibitive throw. Attempts throws with pressure in his face where he cant step into it, leading to inaccurate passes and turnover risks.
 Throwing Mechanics (Minor): While the foundation is good, needs more hip activation for additional torque. Shoulder fakes lack sufficient motion. Play fakes could have more consistent sell/bend.
 Ball Security (Minor): Elbow can be loose from his frame when carrying the ball while scrambling.
-Game Management: Doesn't throw the ball away often (though context suggests few opportunities arose in games watched). Needs to slide feet-first more consistently instead of leading with torso/shoulder.
+Game Management: Doesnt throw the ball away often (though context suggests few opportunities arose in games watched). Needs to slide feet-first more consistently instead of leading with torso/shoulder.
 Player Comparisons:
 Official Spectrum: Josh Allen / Andrew Luck (High End / Toolsy Potential) – Tim Tebow / Bryce Petty (Low End / Limited Passer)
-Elaborated Comparison: The "Frankenstein" analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard ("Young Frankenstein" - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.
-Overall: Howard presents as a physically gifted quarterback with good arm strength and mobility, fitting the mold of players like Josh Allen or Andrew Luck in terms of raw tools. However, significant weaknesses in decision-making, coverage recognition (especially underneath defenders and squatting coverage), anticipation, and occasional forcing of plays limit his current effectiveness and place him closer to the Tebow/Petty end of the spectrum in terms of potential floor if these issues aren't corrected. He's viewed as having potential as a capable backup with upside, but needs significant development in the mental/processing aspects of the game to have a shot at starting.</t>
-  </si>
-  <si>
-    <t>Official Spectrum: Brock Purdy (High End - efficient system QB) – C.J. Beathard (Low End - career backup/spot starter)</t>
+Elaborated Comparison: The Frankenstein analogy (Allen + Tebow DNA) producing either Luck (refined) or Howard (Young Frankenstein - raw potential) highlights his profile as having high-upside physical tools but significant questions about processing and passing refinement, leading to a wide range of potential outcomes.
+Overall: Howard presents as a physically gifted quarterback with good arm strength and mobility, fitting the mold of players like Josh Allen or Andrew Luck in terms of raw tools. However, significant weaknesses in decision-making, coverage recognition (especially underneath defenders and squatting coverage), anticipation, and occasional forcing of plays limit his current effectiveness and place him closer to the Tebow/Petty end of the spectrum in terms of potential floor if these issues arent corrected. Hes viewed as having potential as a capable backup with upside, but needs significant development in the mental/processing aspects of the game to have a shot at starting.</t>
   </si>
   <si>
     <t>Strengths:
@@ -1626,21 +1626,21 @@
 Situational Awareness (Partial): Throws the ball away appropriately against unblocked/fast pressure when initial reads are covered. Shows wise red-zone management when forced out of the pocket. Places ball well for YAC on checkdowns/outlets. Can identify peeling flat defenders on first reads and make safe throws.
 Scrambling/Running: Can avoid pressure and keep eyes downfield. Pulls through reaches. Makes first defender miss in the flat. Quick enough for chain-moving gains and slides appropriately.
 Weaknesses:
-Deep Accuracy (&gt;42 yards): Accuracy significantly diminishes beyond the ~42-yard mark; described as "lacking" or "mostly inaccurate."
+Deep Accuracy (&gt;42 yards): Accuracy significantly diminishes beyond the ~42-yard mark; described as lacking or mostly inaccurate.
 Placement Nuance: While sometimes aware of peripheral coverage, placement needs refinement for complete protection (currently often partial). Boundary fade placement vs. Cover 3 needs improvement (leads receiver towards safety).
-Processing &amp; Patience: Lapses where he isn't patient enough to let coverage declare (e.g., C2 corner peeling off). Accounting for defenders is less accurate on quick checkdowns vs. initial reads. Needs to show ability to manipulate linebackers with eyes (only noted for safeties). Misses underneath defenders (flat LBs) when working through progressions under pressure.
+Processing &amp; Patience: Lapses where he isnt patient enough to let coverage declare (e.g., C2 corner peeling off). Accounting for defenders is less accurate on quick checkdowns vs. initial reads. Needs to show ability to manipulate linebackers with eyes (only noted for safeties). Misses underneath defenders (flat LBs) when working through progressions under pressure.
 Pocket Clock (Situational): Needs to speed up his internal clock when facing heavy zone coverage with limited receiver options to avoid blindside pressure.
 Pre-Snap Recognition: Must improve pre-snap identification of blindside corner blitzes.
 Game Management (Black Zone): Lacks wisdom in his own end zone (black zone), holding onto the ball too long trying for an extra read after already avoiding pressure, instead of throwing it away.
 Ball Security (Breaking Pocket): Ball carriage is lower and looser than ideal when breaking the pocket.
-Durability: Significant injury history is a concern. Missed multiple games across different seasons due to shoulder (x2), oblique injuries, and had abdominal/ankle issues. (Shoulder '22, non-throwing shoulder '23, oblique '24 cost 2 games, abdominal strain '24 ended game, ankle '24 minor).
+Durability: Significant injury history is a concern. Missed multiple games across different seasons due to shoulder (x2), oblique injuries, and had abdominal/ankle issues. (Shoulder 22, non-throwing shoulder 23, oblique 24 cost 2 games, abdominal strain 24 ended game, ankle 24 minor).
 Player Comparisons:
 Official Spectrum: Brock Purdy (High End - efficient system QB) – C.J. Beathard (Low End - career backup/spot starter)
 Elaborated Comparisons:
-Matt Ryan: Used as context to show that Ewers' effective vertical range (up to ~42 yards) is sufficient for NFL success, even if deep accuracy is lacking.
+Matt Ryan: Used as context to show that Ewers effective vertical range (up to ~42 yards) is sufficient for NFL success, even if deep accuracy is lacking.
 Desmond Ridder: Ewers is viewed more favorably due to seeing leverage better, but potentially fitting a similar role (developmental backup given a chance).
-Overall Projection: The profile leans towards Ewers being a high-level backup or journeyman starter ("at best") rather than a franchise player, aligning more with the Beathard outcome unless placed in an excellent situation that accelerates his development.
-Current Date Context (April 11, 2025): As this profile likely reflects analysis from the previous season or offseason, his status entering the upcoming 2025 season (assuming he's still playing college football per the 'Ohio State '25' game tracked) would depend on his development during that time, but this profile represents a snapshot based on the games listed. The durability concerns remain relevant heading into any future season.</t>
+Overall Projection: The profile leans towards Ewers being a high-level backup or journeyman starter (at best) rather than a franchise player, aligning more with the Beathard outcome unless placed in an excellent situation that accelerates his development.
+Current Date Context (April 11, 2025): As this profile likely reflects analysis from the previous season or offseason, his status entering the upcoming 2025 season (assuming hes still playing college football per the Ohio State 25 game tracked) would depend on his development during that time, but this profile represents a snapshot based on the games listed. The durability concerns remain relevant heading into any future season.</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,7 +2612,7 @@
         <v>222</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -2687,7 +2687,7 @@
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G23">
         <v>77</v>
@@ -2696,7 +2696,7 @@
         <v>154</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -2945,7 +2945,7 @@
         <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G32">
         <v>76.599999999999994</v>
@@ -2954,7 +2954,7 @@
         <v>154</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3496,7 +3496,7 @@
         <v>218</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G51">
         <v>79</v>
@@ -3505,7 +3505,7 @@
         <v>222</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3525,7 +3525,7 @@
         <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G52">
         <v>76.260000000000005</v>
@@ -3534,7 +3534,7 @@
         <v>154</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3554,7 +3554,7 @@
         <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G53">
         <v>74</v>

--- a/data/common/RSP_Rookies.xlsx
+++ b/data/common/RSP_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C7D15C-9B84-4044-8780-6EB1F9234B54}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9077611-E6F4-4DFA-8C66-E1A56DA4F83C}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="160" yWindow="15400" windowWidth="20840" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="276">
   <si>
     <t>Player</t>
   </si>
@@ -1641,6 +1641,323 @@
 Desmond Ridder: Ewers is viewed more favorably due to seeing leverage better, but potentially fitting a similar role (developmental backup given a chance).
 Overall Projection: The profile leans towards Ewers being a high-level backup or journeyman starter (at best) rather than a franchise player, aligning more with the Beathard outcome unless placed in an excellent situation that accelerates his development.
 Current Date Context (April 11, 2025): As this profile likely reflects analysis from the previous season or offseason, his status entering the upcoming 2025 season (assuming hes still playing college football per the Ohio State 25 game tracked) would depend on his development during that time, but this profile represents a snapshot based on the games listed. The durability concerns remain relevant heading into any future season.</t>
+  </si>
+  <si>
+    <t>Kyle Williams</t>
+  </si>
+  <si>
+    <t>Isaac TeSlaa</t>
+  </si>
+  <si>
+    <t>Jaylin Lane</t>
+  </si>
+  <si>
+    <t>Chimere Dike</t>
+  </si>
+  <si>
+    <t>Dont'e Thornton</t>
+  </si>
+  <si>
+    <t>Jimmy Horn</t>
+  </si>
+  <si>
+    <t>Jordan Watkins</t>
+  </si>
+  <si>
+    <t>Jaydon Blue</t>
+  </si>
+  <si>
+    <t>Woody Marks</t>
+  </si>
+  <si>
+    <t>Jordan James</t>
+  </si>
+  <si>
+    <t>Kyle Monongai</t>
+  </si>
+  <si>
+    <t>Phil Mafah</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Chris Olave - - X</t>
+  </si>
+  <si>
+    <t>Kyle Williams profiles as a developmental flanker whose fantasy value hinges on harnessing his speed and open-field ability while overcoming significant technical flaws. In .5 PPR formats, his potential comes from his knack for generating yards after the catch (YAC) due to excellent stop-start quickness and elusiveness. He shows promise against zone coverage and as a vertical threat, suggesting potential for chunk plays (yards) and touchdowns.
+However, his fantasy floor is low due to major concerns about his hands ("unforced drops," "clap-attacking," wide hands) which directly negates the .5 point per reception benefit and could limit his playing time. His route running against man coverage also needs significant refinement (setups, break sharpness) to command the consistent target volume needed for reliable PPR production.
+Strengths (Highlighting .5 PPR Relevance):
+Big-Play Ability &amp; Speed: Possesses the speed to be a vertical threat, leading to potential long gains and touchdowns. His acceleration helps him beat pursuit angles.
+YAC Potential: Excellent stop-start quickness, elusiveness (spins, jump cuts), and vision in the open field mean he can turn shorter receptions (valuable in PPR) into significant gains. He shows toughness to break tackles.
+Zone Acumen: Best work currently comes against zone coverage, where he can find space, settle, and potentially accrue receptions.
+Release Quickness: Good quickness and technique off the line of scrimmage help him get into his routes quickly, the first step to earning a target.
+Weaknesses (Highlighting .5 PPR Impact):
+Drops/Hands Technique: This is a major red flag for any format, but especially PPR. Multiple mentions of drops due to technique (clap-catching, wide hands, poor positioning on low throws) directly subtract from his reception potential. The tracked stats show drops across different target types.
+Route Running Nuance: Struggles with setups and sharp breaks, particularly against man coverage. This will limit his ability to consistently separate and earn the target volume needed for steady PPR production.
+Contested Catch/Positioning: Needs development in positioning his body effectively, especially on vertical routes. This limits his ability to win 50/50 balls and could cap his touchdown upside, particularly in the red zone.
+Ball Security: Mentioned carrying the ball loosely, which could lead to fumbles (negative fantasy points).
+Player Comparison Spectrum:
+High End (If he develops): Chris Olave: This comparison points to the potential for Williams to become a smooth, fast receiver capable of winning vertically and contributing significantly. Olave is a strong fantasy asset.
+Low End (If he fails to develop): "X" / Roster Cut/Special Teamer: This signifies a very low floor. If the drops and route running don't improve, he could quickly flame out of the league or be relegated to non-offensive roles, offering zero fantasy value.
+Fantasy Outlook (.5 PPR):
+Williams is a late-round rookie draft flier based purely on athletic upside. His value in .5 PPR leagues is entirely dependent on significant development. If he improves his hands and route running, his speed and YAC ability could make him a dynamic, albeit likely inconsistent, fantasy asset capable of spike weeks. However, the drop issues present a serious threat to his playing time and target potential, making him a high-risk investment with a short leash, as the profile suggests cutting bait if there are no positive signs within 18 months.</t>
+  </si>
+  <si>
+    <t>Christian Watson - David White / X</t>
+  </si>
+  <si>
+    <t>Dont'e Thornton Jr. is the definition of a "looks good on paper" prospect whose fantasy value is tied almost entirely to his rare combination of size (6'5") and speed (reported 4.3 40-yard dash). In .5 PPR formats, his theoretical upside comes from the potential for explosive plays – long gains and touchdowns – created by this physical profile. He possesses the raw speed to separate vertically late in routes.
+However, significant technical flaws severely cap his current fantasy floor and ceiling, especially in PPR leagues that reward receptions. His primary weaknesses are major concerns with hands/catch technique (using a difficult "side-by-side clap" method, leading to drops/bobbles) and tracking the ball sub-optimally. Furthermore, his underdeveloped release package and inability to sink his hips and break sharply on non-vertical routes limit his ability to get open consistently and earn the target volume needed for reliable PPR production. He projects as a situational deep threat initially, needing significant refinement to become more.
+Strengths (Highlighting .5 PPR Relevance):
+Elite Size/Speed Combination: His 6'5" frame and 4.3 speed create enormous potential for mismatch opportunities, leading to high-yardage plays and touchdowns if he can put it all together.   
+Vertical Separation: Has the long speed to stack defenders and win deep downfield, offering potential for splash plays.   
+YAC Potential (Raw): Shows some decent footwork (spins, stutters) after the catch and is decisive, suggesting some ability to add yards, though the profile notes he plays slower than his timed speed might indicate.
+Weaknesses (Highlighting .5 PPR Impact):
+Hands/Catch Technique: This is a critical flaw for fantasy, especially PPR. His tendency to "clap-attack" the ball side-by-side drastically increases drop probability, negating potential receptions and points.
+Pass Tracking: Inconsistent tracking (using the wrong shoulder) makes catching difficult deep passes even harder, lowering the efficiency of his potential primary role.
+Route Running &amp; Releases: Lacks refinement in releases (plays slow off the line) and doesn't sink his hips effectively on breaks. This makes him predictable (mostly vertical) and unable to consistently earn targets on the shorter/intermediate routes that often build PPR volume.
+Ball Security: History of fumbles due to carrying the ball loosely, particularly during dynamic movements, leading to potential negative fantasy points.
+Overall Polish/Consistency: The theme is that his physical tools haven't translated effectively or consistently to on-field production yet.
+Player Comparison Spectrum:
+High End: Christian Watson: This comparison highlights the potential for a physically gifted receiver who can produce massive spike weeks via big plays, but likely comes with inconsistency and relies heavily on athletic traits over refinement.
+Low End: David White / X: Represents the significant bust potential if Thornton cannot overcome his technical flaws, potentially becoming a career backup or out of the league.
+Fantasy Outlook (.5 PPR):
+Thornton is a developmental project or a "taxi squad stash" in dynasty leagues. His immediate path to fantasy relevance is narrow, likely relying on manufacturing touches (screens) or hitting on low-probability deep shots as a situational player. His .5 PPR value is severely hampered by the hands and route running issues, which prevent consistent target earning and reception volume. He offers boom/bust potential based on his physical gifts, fitting the archetype of an inconsistent deep threat (best case early on) or a player who might thrive temporarily in a specific mismatch role (like the Golladay/Claypool example) if landing in an ideal situation. Don't expect reliable production early in his career; he's a long-term gamble on athletic upside overcoming significant technical hurdles.</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Mecole Hardman - Keke Coutee - X</t>
+  </si>
+  <si>
+    <t>Okay, let's try summarizing Jaylin Lane's RSP profile again from a .5 PPR fantasy football perspective:
+Jaylin Lane - .5 PPR Fantasy Football Summary:
+Jaylin Lane enters the league primarily as a speed and space specialist, drawing strong comparisons to Mecole Hardman. For .5 PPR fantasy leagues, his appeal lies almost entirely in his big-play ability and potential for yards after the catch (YAC), rather than consistent reception volume.
+Strengths (.5 PPR Perspective):
+Game-Breaking Speed: Lane possesses the speed to create long gains and touchdowns, both as a receiver on specific routes (deep shots, crossers) and as a runner on manufactured touches (sweeps, screens). This provides paths to fantasy points even on limited opportunities.
+Yards After Catch (YAC): He displays excellent elusiveness, stop-start quickness, and vision in the open field. This is crucial in PPR formats as it allows him to maximize the fantasy points earned on each reception or designed run.
+Potential Gadget Role: Teams may scheme touches for him via motion, sweeps, and screens, offering additional avenues for production beyond traditional routes, which can bolster his value in formats rewarding any reception or yardage.
+Good Ball Security: Generally takes care of the football, minimizing the risk of negative points from fumbles.
+Weaknesses (.5 PPR Perspective):
+Catch Point Deficiencies: This is his most significant flaw for fantasy, especially PPR. The profile highlights major struggles against tight coverage and contact, leading to drops and appearing "distracted" or "indecisive." This directly limits his ability to secure the receptions needed for consistent PPR scoring.
+Limited Route Refinement: He wins on a restricted "menu" of routes and needs development, particularly on the perimeter and with intermediate route breaks. This prevents him from being a reliable target earner across the full route tree, capping his potential target volume.
+Scheme Dependency: Because of his limitations, his production will likely depend heavily on how effectively his team schemes him open and manufactures touches for him.
+Player Comparison Spectrum:
+Mecole Hardman (Primary): This comparison sets the expectation: a player valued for speed and gadget usability, but inconsistent as a pure receiver, particularly in contested situations.
+Keke Coutee (Secondary): Suggests a smaller, quicker player, potentially operating from the slot.
+X (Low End): Implies a floor where the receiving limitations prevent him from carving out a meaningful role.
+Fantasy Outlook (.5 PPR):
+In .5 PPR leagues that don't include return yardage, Jaylin Lane profiles as a volatile, low-volume fantasy asset. His fantasy points will likely come in unpredictable bursts via long plays or schemed touches, rather than steady week-to-week reception totals. He's a classic boom-bust player, making him better suited for Best Ball formats or as a late-round dynasty stash/waiver wire watchlist candidate. Don't draft him expecting reliable weekly production; you're betting on his speed creating enough splash plays to be occasionally valuable.</t>
+  </si>
+  <si>
+    <t>CeeDee Lamb - Santonio Holmes - X</t>
+  </si>
+  <si>
+    <t>Chimere Dike profiles as a physically imposing and reliable receiver with a promising outlook for .5 PPR formats. His blend of speed, physicality, strong hands, and ability after the catch suggests he could be an early contributor. His high marks for contested catches and reliability (backed by strong catch-rate stats in the tracked games) provide a solid foundation for PPR scoring, as he's likely to convert targets into catches frequently. Adding his significant YAC potential further boosts his value in leagues rewarding half a point per reception.
+The main area for development is adding subtlety and varied pacing to his route running; currently described as "all gas, no brake," refining this could unlock higher target volume against NFL defenses. However, his current skillset, including valuable blocking ability that should help him see the field, points towards a player who can make an impact.
+Strengths (Highlighting .5 PPR Relevance):
+Reliable Hands &amp; Contested Catches: Dike demonstrates strong hands, performing well on contested targets and against contact. His high catch rate on "Pinpoint" targets in the tracked games underscores this reliability, which is crucial for securing the .5 points per reception.
+Yards After Catch (YAC) Ability: Described as a physical runner with good vision who can break tackles and drag defenders, Dike excels after the catch. This turns receptions into larger point gains through added yardage and touchdown potential.
+Versatility &amp; Physicality: Possesses good size (6'1"/196) and speed, capable of winning downfield and on routes across the field (crossers, screens, RPOs). His physicality helps both in contested situations and after the catch.
+Blocking Prowess: Noted as an asset in blocking, which coaches value and often leads to more playing time, thus increasing opportunities for targets.
+Weaknesses (Highlighting .5 PPR Impact):
+Route Running Nuance: Lacks subtlety and change-of-pace in his routes currently. While his athleticism often wins now, developing more refined setups, breaks, and pacing would help him consistently separate against NFL corners and potentially earn higher target volume.
+Zone Route Awareness: Minor issues noted with showing his eyes too early or settling near defenders in zone coverage, which could occasionally limit easy completions.
+Minor Technique/Security Lapses: Some wasted motion in releases, occasional suboptimal attack angles on throws, and carrying the ball slightly loose (leading to a past fumble) are small areas for cleanup.
+Player Comparison Spectrum:
+High End: CeeDee Lamb: Suggests a potential ceiling as a versatile, high-volume WR1 who excels after the catch and in contested situations – an elite fantasy asset.
+Mid Range: Santonio Holmes: Points to a potential outcome as a very capable starter known for reliable hands and making key plays, offering solid WR2/WR3 fantasy value.
+Low End: X: Represents the floor if he doesn't develop the needed route nuance or translate effectively.
+Fantasy Outlook (.5 PPR):
+Dike appears to be a promising prospect for .5 PPR leagues, likely commanding decent draft capital (reflected in his WR23 RSP rank). His profile is well-suited for this format due to the combination of reliable hands (high catch conversion rate) and strong YAC ability (maximizing points post-reception). While route refinement is key to unlocking elite volume, he has the tools to contribute early as a rotational starter. He should be considered a strong candidate in rookie drafts, potentially offering immediate value with significant long-term upside.</t>
+  </si>
+  <si>
+    <t>Isaac TeSlaa fits the mold of a classic "boom-bust" athlete at wide receiver. Possessing an impressive blend of size (6'4"/214) and athletic traits (speed, quickness), his fantasy appeal, especially in .5 PPR, is currently tied more to his potential for big plays and touchdowns than reliable reception volume. He draws strong comparisons to players like Kenny Golladay and Chase Claypool – receivers who leveraged physical advantages for periods of strong production, sometimes aided by playing alongside established stars, before potentially fading if technical refinement didn't follow.
+TeSlaa shows reliable hands on well-thrown balls (perfect pinpoint catch rate in tracked games) but needs significant development in route running precision and contested catch technique to become a consistent fantasy asset.
+Strengths (Highlighting .5 PPR Relevance):
+Elite Physical Profile: His combination of height, weight, and athleticism creates significant mismatch potential, particularly downfield and in the red zone, offering touchdown upside.
+Big Play Ability: Has the speed to win vertically and separate late on deep routes, leading to potential high-yardage receptions.
+Hands (in Space): Demonstrates strong hand-eye coordination and reliability when catching catchable targets away from heavy contest, as evidenced by his perfect pinpoint target catch rate.
+Potential Mismatch Role: Could thrive early if placed in an offense where other weapons draw primary coverage, allowing him to exploit favorable matchups (the "Golladay/Claypool Production Privilege").
+Weaknesses (Highlighting .5 PPR Impact):
+Route Running Refinement: This is a major deficiency. Lack of precision, snap, and sharpness in breaks, along with drifting, will limit his ability to consistently separate against NFL corners and command the target volume needed for steady .5 PPR scoring.
+Contested Catch Technique/Positioning: Despite his size, struggles with positioning, suboptimal attack angles (clapping noted), and fading away from contact limit his effectiveness in traffic. This results in missed opportunities and drops (shown in stats vs. contact/tight coverage), directly hindering his reception count for PPR leagues.
+Ball Security: Has shown issues carrying the ball loose, leading to fumbles from backside pursuit, which results in negative fantasy points.
+Player Comparison Spectrum:
+Kenny Golladay / Chase Claypool: These comparisons define the archetype – physically gifted receivers capable of dominant stretches and highlight plays, but often inconsistent due to underdeveloped routes and potentially unreliable hands in contested situations. Suggests a volatile fantasy producer.
+Matt Jones (WR): Another example of a big athlete conversion project.
+X (Low End): Represents the risk that the lack of technical skill prevents him from ever becoming a consistent NFL contributor.
+Fantasy Outlook (.5 PPR - As of April 2025):
+TeSlaa is likely on an NFL roster now (post-draft). He remains a high-risk, high-reward developmental prospect for fantasy. His .5 PPR value is heavily skewed towards touchdown dependency and splash plays resulting from his athletic gifts, rather than consistent reception volume derived from polished receiver skills. Be wary of potential early production spikes if he lands in a favorable situation ("Production Privilege") – the profile strongly suggests this could be a "sell-high" window if not accompanied by tangible improvement in his route running and contested catch ability. Long-term, consistent .5 PPR relevance requires significant technical development that is not yet evident. He's a volatile fantasy asset best viewed as a roster back-end player with upside, not a reliable weekly starter currently.</t>
+  </si>
+  <si>
+    <t>Kenny Golladay - x - Matt Jones - Chase Claypool</t>
+  </si>
+  <si>
+    <t>Calvin Austin - Tyler Scott - Jalin Hyatt</t>
+  </si>
+  <si>
+    <t>Jimmy Horn Jr. is a significantly undersized (5'8", 174 lbs) but explosive athlete whose fantasy potential hinges entirely on his speed and quickness translating into big plays. His profile aligns with other small, speedy specialists (like Calvin Austin III, Tyler Scott, etc.), suggesting a limited, scheme-dependent role in the NFL. For .5 PPR leagues, his value is hindered by notable concerns about his hands/catch technique and route running nuance, making consistent reception volume unlikely.   
+Strengths (Highlighting .5 PPR Relevance):
+Speed and Elusiveness: Possesses the speed to be a vertical threat and the quickness/stop-start ability to create yards after the catch (YAC) on shorter throws or designed touches. His spin move and agility help maximize gains.
+Vision and Creativity: Shows patience setting up blocks and decisiveness hitting creases, both after the catch and on potential gadget plays (reverses, etc.).
+Toughness (Relative to Size): Plays with good contact balance for his frame, keeps feet moving through wraps, and can win collisions against defensive backs to gain extra yards.
+Weaknesses (Highlighting .5 PPR Impact):
+Hands/Catch Technique: This is a major concern for PPR formats. The profile notes lapses in technique, particularly "clap-attacking" the ball, even on some routine catches. He also struggles with positioning, sometimes allowing defenders access to the ball. This inconsistency directly limits his ability to secure receptions.
+Size Limitations: His small frame inherently limits his catch radius and makes him highly unlikely to win contested catches against NFL defenders.
+Route Running Nuance: Lacks sufficient variation and refinement in releases and breaks to consistently beat NFL coverage without being schemed open. Predictability in movements limits separation potential.
+Focus Through Contact: Has difficulty securing catches through hard contact or when adjusting significantly to off-target throws.   
+Ball Security: Inconsistent use of the proper ball-carrying arm increases fumble risk.
+Player Comparison Spectrum:
+Calvin Austin III / Tyler Scott / Jalin Hyatt / Charlie Jones / Anthony Gould: This group consists entirely of small, fast receivers. Some are primarily vertical threats (Hyatt, potentially Scott/Austin), while others fit more of a slot/returner mold (Jones, Gould, potentially Austin). None project as high-volume receivers, reinforcing Horn's likely role as a specialist.
+X (Low End): Represents the possibility that his size and technical limitations prevent him from sticking in the league.
+Fantasy Outlook (.5 PPR - As of April 2025):
+Given the profile's lukewarm "monitor from afar" advice (likely from pre-draft time) and his specific skillset/limitations, Jimmy Horn Jr. is a long shot for .5 PPR fantasy relevance. He likely entered the league as a late-round pick or UDFA and is battling for a roster spot, probably needing to excel on special teams (returns) to stick. His fantasy value in standard .5 PPR leagues is minimal. He profiles as a low-volume gadget player whose contributions would come sporadically via splash plays generated by his speed, not consistent receptions. Unless your league heavily rewards return yardage, he is not a recommended fantasy asset.</t>
+  </si>
+  <si>
+    <t>Brandin Cooks - Randall Cobb - - X</t>
+  </si>
+  <si>
+    <t>Jordan Watkins profiles as a speed-based receiver with potential value as a return specialist. 1  While he shows promise with his athleticism, improved route craft (especially in releases and setups noted in 2024), and ability after the catch, significant concerns about his hands and catch technique severely limit his current .5 PPR fantasy appeal. His path to an NFL roster likely hinges on special teams contributions, with a steep climb needed to earn significant offensive snaps, especially given his projected low draft capital. The comparisons to Brandin Cooks and Randall Cobb suggest a potential ceiling if major development occurs, but he's currently viewed as a low-end contributor.   
+ 1. 
+Ole Miss Football Wide Receiver Jordan Watkins Selected in 2025 NFL Draft
+www.si.com
+Strengths (Highlighting .5 PPR Relevance):
+Speed &amp; Big Play Potential: Possesses the speed to threaten defenses vertically and can maintain separation downfield. Offers potential for high-yardage plays on limited touches.
+Route Running Improvement: Showed tangible progress in release techniques, hand counters, and stem setups in 2024, indicating coachability and upside for further development.
+YAC Ability: Quick feet, efficient moves in space, and effective pacing allow him to create extra yards after the catch or on designed touches.
+Special Teams Value: Experience and likely fit as a punt returner provide his clearest path to securing a roster spot and potentially contributing fantasy points in leagues that reward return yardage.
+Weaknesses (Highlighting .5 PPR Impact):
+Hands/Catch Technique: Major Concern. The profile explicitly notes he "must continue working on his hands," highlighting excessive use of underhand technique where overhand is needed, and lapses with "clap-attacks." This inconsistency directly threatens his ability to secure receptions, which is critical for PPR value. Leaving his feet unnecessarily also limits reliability.
+Route Consistency: While improving, still needs refinement. Wasted motion in releases, rounding off intermediate breaks, and past issues with zone awareness need continued work to consistently earn NFL targets.
+Opportunity Risk: Projected low draft capital makes it difficult to earn offensive snaps over higher-invested players. His path to a significant role likely requires injuries ahead of him or significant, rapid development.
+Player Comparison Spectrum:
+High End: Brandin Cooks: Represents an optimistic outcome where Watkins leverages his speed and significantly develops his route running and hands to become a productive NFL receiver.
+Mid Range: Randall Cobb: Suggests a potential role as a versatile slot receiver and gadget player, offering useful but likely complementary production.
+Low End: X: Signifies the risk that the hands issues and lack of opportunity prevent him from making a fantasy impact.
+Fantasy Outlook (.5 PPR - As of April 2025):
+Watkins is likely a late-round draft pick or UDFA competing for a spot on an NFL roster or practice squad. For standard .5 PPR leagues (without return yardage), his fantasy value is currently minimal. His immediate contributions are expected on special teams. To become fantasy relevant offensively, he needs to overcome significant hand consistency issues and continue refining his routes while hoping for an opportunity to emerge. He's a deep dynasty stash or someone to "monitor from afar," primarily gaining relevance if he locks down a returner job in leagues that score those yards heavily.</t>
+  </si>
+  <si>
+    <t>Austin Ekeler - Jaydon Blue - - Bernard Scott</t>
+  </si>
+  <si>
+    <t>Jaydon Blue presents one of the most compelling high-risk, high-reward profiles for fantasy football. He possesses an exciting blend of "game-breaking speed," strong receiving skills, good vision, and effective power/balance for his size (5'9", 196 lbs). His potential as a receiver, drawing comparisons to a faster Austin Ekeler, makes him incredibly intriguing for .5 PPR formats. However, his entire evaluation is overshadowed by a critical flaw: historically poor ball security. His college fumble rate (1 per 45.5 touches overall, worsening in his final year) falls well below a threshold historically indicative of NFL success, per RSP data, making it a potential "death knell" for his career prospects if not corrected immediately.
+Strengths (Highlighting .5 PPR Relevance):
+Receiving Upside: Blue is noted for "strong receiving skills" and promising route detail ("patient-but-sudden moves," effective hip shifts). He tracks the ball well, catches away from his frame, and understands zone concepts. This projects favorably for earning targets and racking up receptions, the cornerstone of PPR value.
+Speed and Acceleration: Possesses "game-breaking speed" and acceleration to beat angles and potentially house any touch. This adds explosive play upside to both rushes and receptions.
+Vision and Decision-Making: Generally makes good decisions, reads leverage well behind pullers, and shows maturity in key situations. Helps maximize yardage on his touches.
+Elusiveness &amp; Power/Balance: Combines multiple effective open-field moves with good contact balance and power for his size, allowing him to create yards independently and finish runs effectively.
+Weaknesses (Highlighting .5 PPR Impact):
+Ball Security: This is the paramount concern. His fumble rate (1 per 45.5 touches) is statistically alarming based on historical data correlating college ball security to NFL success. The profile notes his elbow gets wide, making him vulnerable. Fumbles lead to negative points and, more importantly, benchings, potentially rendering all his other skills irrelevant for fantasy.
+Focus Drops: Has occasional concentration drops when trying to turn upfield too quickly, directly negating potential receptions and .5 PPR points.
+Blocking Technique: While willing and capable of identifying blitzers, he tends to overextend and doesn't always close space effectively, which could limit trust/snaps on crucial passing downs despite his receiving ability.
+Cutting Technique: A specific technical flaw noted when cutting tight to the line of scrimmage can cause slips, slightly limiting efficiency in those scenarios.
+Player Comparison Spectrum:
+High End: Austin Ekeler (but faster): Represents the tantalizing ceiling if the fumbles are fixed – a potential elite PPR back due to receiving volume and overall dynamism.
+Low End: Bernard Scott: Suggests a potential outcome as a change-of-pace or gadget back whose fumbling issues prevent him from earning a significant role.
+Mention: Sony Michel: Cited as a rare example of a player overcoming similar collegiate fumble rates.
+Fantasy Outlook (.5 PPR - As of April 2025):
+Jaydon Blue is now on an NFL roster (post-draft) and represents a true boom-or-bust fantasy asset. His .5 PPR ceiling is immense due to his receiving prowess and explosive speed. However, the historically poor ball security presents an enormous risk, potentially making him unusable if it continues at the professional level. His fantasy success hinges entirely on fixing the fumbling issue. He was likely a mid-round rookie draft pick where managers are betting on the upside while accepting the significant bust potential. Monitor his ball security and usage closely in training camp and preseason; if he protects the ball, his value could soar, but continued fumbles will likely bury him on the depth chart. He's a high-variance lottery ticket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadillac Williams-Jerome Ford/X-Julius Jones-James Jackson </t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Jo’quavious “Woody” Marks projects as a high-floor, well-rounded running back with immediate contributor potential, particularly valuable in .5 PPR formats. His profile highlights significant strengths in pass protection (one of the best in his class) and ball security (excellent low fumble rate), traits that build coaching trust and earn playing time, especially on passing downs. Combined with solid receiving skills and "star-caliber" burst, Marks has a clear path to a rotational role early in his career. While he may lack elite long speed, his reliability, vision, and functional power make him a safe bet to carve out a productive role in a committee, with the ceiling of a dependable lead back or high-end injury replacement.   
+Strengths (Highlighting .5 PPR Relevance):
+Pass Protection: Evaluated as one of the best blockers in his draft class. This skill is crucial for earning snaps on third downs and in passing situations, directly increasing his opportunities for targets and receptions in PPR formats.
+Ball Security: Boasts an excellent track record with very few fumbles (1 per 176 touches career, 1 per 275 over the last three seasons). Reliability is key for staying on the field and maximizing touches.
+Receiving Ability: Shows good hands (including one-handed catches), adjusts well to targets, tracks the ball effectively, and demonstrates solid boundary awareness. A reliable outlet receiver.   
+Burst &amp; Acceleration: Possesses "star-caliber" burst, allowing him to hit creases quickly and accelerate effectively into the second level, creating chunk plays even without elite top-end speed.   
+Vision &amp; Power: Generally displays good vision (especially on gap/power runs), runs with good pad level, and shows functional power and contact balance to break tackles and finish runs.   
+Weaknesses (Highlighting .5 PPR Impact):
+Long Speed: While adequate ("good enough to flip the field"), he lacks elite breakaway speed, which may limit the frequency of 60+ yard touchdown runs compared to true burners.   
+Route Running Nuance: Needs refinement in understanding when to settle versus continue running against zone coverage, slightly limiting his ceiling as a dynamic receiving weapon.
+Impatience (Inside Zone): Sometimes hits inside zone creases too quickly without fully allowing blocks to develop, potentially leaving some yardage untapped on those specific plays.
+Player Comparison Spectrum:
+High End: Cadillac Williams: Suggests potential as a strong, versatile, productive lead back.
+Mid Range: Jerome Ford: Represents a likely outcome as a capable committee member and reliable spot starter.
+Low End: Julius Jones / James Jackson: Implies a floor as a functional, contributing committee back.
+Fantasy Outlook (.5 PPR - As of April 2025):
+Having entered the NFL, Woody Marks profiles as one of the safer running back investments from his draft class, particularly appealing in .5 PPR leagues. His elite pass protection and stellar ball security should grant him early opportunities, especially in passing situations, providing a solid reception floor. While his upside might be capped slightly by average long speed, his burst, receiving skills, and overall reliability make him an ideal committee back and a high-value handcuff capable of producing RB2/Flex numbers when given volume. He's a dependable asset likely to contribute throughout his rookie contract.</t>
+  </si>
+  <si>
+    <t>Blake Corum</t>
+  </si>
+  <si>
+    <t>Jordan James presents a compelling profile as a high-floor, versatile running back built on a foundation of exceptional reliability. His standout traits are perfect college ball security (zero fumbles in 430 career touches) and elite pass protection skills, qualities highly valued by NFL coaches. These strengths should earn him trust and playing time early. He's a decisive runner with good vision, power, and contact balance, drawing comparisons to Blake Corum. However, his upside in .5 PPR formats faces a significant hurdle: poor receiving technique. While his blocking warrants passing-down snaps, his tendency to "clap-trap" targets and fight the ball needs major improvement to unlock his full fantasy potential.
+Strengths (Highlighting .5 PPR Relevance):
+Perfect Ball Security: Zero fumbles in his college career is an elite trait that builds immense coach trust, maximizes opportunities (especially in high-leverage situations), and avoids negative fantasy points.
+Elite Pass Protection: Considered one of the best blockers in his class, excelling in diagnosing blitzes, positioning, and technique. This skill is invaluable for securing passing-down roles, which directly translates to opportunities for targets and receptions in PPR leagues.
+Vision &amp; Decision Making: A strong "game manager" who reads plays well, hits tight creases decisively, and protects the ball in key situations. Maximizes rushing efficiency.
+Well-Rounded Rushing Skills: Blends good power, contact balance (direct and indirect), and elusiveness (spin, jump cuts, pressure cuts). He finishes runs effectively and can create yards independently.
+Versatility: Profiled as potentially the most versatile back among compared peers, capable of handling various duties.
+Weaknesses (Highlighting .5 PPR Impact):
+Receiving Technique: This is the primary concern for his PPR ceiling. Despite blocking prowess suggesting passing down work, his technique is described as "sloppy," prone to "clap-trapping," drops, and juggling. This inconsistency severely limits his reliability as a pass-catcher and needs significant refinement.
+Long Speed: Possesses adequate, but not elite, top-end speed. This limits his potential for long, breakaway touchdown runs compared to true speed merchants.
+Blocking Polish (Minor): While generally excellent, occasional overextension or lack of a powerful punch (despite good timing/position) are minor technical refinement points.
+Player Comparison Spectrum:
+Blake Corum: This comparison highlights James' strengths in vision, balance, toughness, reliability, and all-around game, suggesting a dependable, productive NFL back rather than an explosive superstar.
+Fantasy Outlook (.5 PPR - As of April 28, 2025):
+Jordan James, now on an NFL roster, profiles as one of the safest RB prospects from his draft class due to his flawless ball security and elite blocking. These traits give him a clear path to earning snaps. His .5 PPR value hinges almost entirely on whether he can fix his receiving technique. If his hands improve significantly, his blocking skills could make him a three-down workhorse with high-end RB2 or even RB1 potential in PPR formats. If his receiving technique remains poor, he projects as a highly reliable committee back or early-down grinder whose fantasy value (likely solid RB2/Flex) comes more from rushing and goal-line work, with his PPR upside capped despite being on the field for passing plays. He represents a secure floor with contingent upside based on receiving development.</t>
+  </si>
+  <si>
+    <t>Kyle Monangai projects as a tough, intelligent, and highly reliable running back with a distinct low center of gravity (5'8", 211 lbs) and excellent power. His fantasy profile boasts an extremely high floor due to his perfect college ball security (zero fumbles in 708 touches) and strong rushing traits (vision, contact balance, short-area quickness). He draws comparisons to powerful, compact backs like Ray Rice or Jaylen Warren. However, his .5 PPR ceiling is currently limited by significant weaknesses in pass protection and an underdeveloped receiving profile. While functional as a check-down, he needs considerable improvement in the passing game facets to become more than a potent early-down/goal-line contributor.
+Strengths (Highlighting .5 PPR Relevance):
+Perfect Ball Security: Zero fumbles over an extensive college career builds immediate trust and ensures he maximizes opportunities. A massive plus for securing playing time and avoiding negative points.
+Power &amp; Contact Balance: Excels at breaking tackles, running through contact with low pad level, and finishing runs. His ability to handle direct and indirect contact makes him effective between the tackles and likely earns him goal-line work (touchdown upside).
+Vision &amp; Decision Making: Smart, patient runner who reads blocks well, handles tight creases effectively, and generally avoids negative plays. Maximizes yardage on the ground.
+Short-Area Quickness/Elusiveness: Despite lacking long speed, he possesses good feet, stop-start ability, and hip mobility to make defenders miss in confined spaces.
+Toughness/Stamina: Described with a "never say die" attitude and high play stamina, suggesting he can handle a significant workload.
+Weaknesses (Highlighting .5 PPR Impact):
+Pass Protection: This is his most significant weakness. The profile notes issues with positioning, balance, and technique (lacks punch, catches defenders). This will likely limit his snaps on obvious passing downs, severely capping his target opportunities and PPR ceiling until improved.
+Receiving Skills/Usage: While capable of catching, his technique needs refinement (allows ball into frame), and he had limited usage as a receiver in college. Currently projects as more of a check-down option rather than a dynamic receiving threat, limiting PPR upside.
+Long Speed: Lacks elite breakaway speed, limiting his home run potential on long runs.
+Player Comparison Spectrum:
+High End: Ray Rice: Represents an optimistic ceiling where Monangai develops his passing game skills to become a highly productive, versatile lead back despite his stature.
+Mid Range: Jaylen Warren / Ray Davis: Strong, realistic comparisons suggesting a role as a tough, effective committee back who excels between the tackles and provides reliable production.
+Low End: X / Julius Jones / James Jackson: Implies a floor as a functional committee member primarily valued for rushing contributions.
+Fantasy Outlook (.5 PPR - As of April 28, 2025):
+Now in the NFL, Kyle Monangai stands out as a high-floor prospect due to his exceptional ball security and powerful, reliable rushing style. He's likely to earn carries early, especially in short-yardage and goal-line situations. However, his .5 PPR value is currently constrained by his subpar pass protection and limited receiving profile. To unlock significant PPR production, he must make major strides as a blocker to stay on the field during passing downs. Without that development, he projects as a valuable early-down grinder and committee member (think Jaylen Warren), offering RB2/Flex potential driven by rushing volume and touchdowns, but with a limited ceiling in the receiving game. He's a safe investment with contingent upside tied to passing game improvement.</t>
+  </si>
+  <si>
+    <t>Phil Mafah enters the league as a big-bodied (6'0", 234 lbs) power runner with good vision, patience, and contact balance, drawing comparisons to backs like James Conner, Leonard Fournette, or A.J. Dillon. His strengths lie in his ability to handle volume between the tackles, break tackles, and finish runs, giving him a solid floor for rushing production and touchdown potential. However, his value in .5 PPR formats is currently capped by significant weaknesses in the passing game. Both his pass protection technique/consistency and his receiving technique (prone to "clap-attacks") need considerable refinement for him to evolve beyond an early-down/goal-line role.   
+Strengths (Highlighting .5 PPR Relevance):
+Size, Power &amp; Contact Balance: Mafah possesses an excellent power back frame, allowing him to move piles, run through arm tackles, absorb contact (direct and indirect), and finish effectively. This projects well for handling volume and securing goal-line carries (TD upside).   
+Vision &amp; Patience: Demonstrates good patience setting up blocks on various schemes (zone, gap) and reads penetration/cutback lanes well. Decisive when hitting the hole. Maximizes rushing opportunities.
+Adequate Athleticism for Size: While not a burner, he has enough acceleration and long speed to hit creases quickly, get into the secondary, and occasionally "flip the field" for chunk gains.
+Weaknesses (Highlighting .5 PPR Impact):
+Pass Protection: Significant Weakness. Profile notes issues outweigh assets currently. He can be late identifying assignments, overextends on strikes (leaving him off balance), lacks consistent punch power, and can be beaten by savvy rushers. This severely limits his trustworthiness and likely snaps on passing downs, hindering PPR value.
+Receiving Technique: Significant Weakness. Prone to "clap-attacking" targets, especially those requiring extension or awkward angles. Fights the ball unnecessarily. This unreliability as a pass-catcher limits his effectiveness even as a potential outlet, capping his PPR ceiling.
+Inconsistent Power Application: Sometimes fails to align hips properly into contact, reducing his effectiveness in collisions he should physically dominate.
+Ball Security (Minor Trend): While his career rate is acceptable (1 fumble per 90 touches), an uptick in fumbles during the 2023 season warrants monitoring.
+Player Comparison Spectrum:
+High End: James Conner / Leonard Fournette: Represents potential as a productive, powerful starting running back who can handle significant volume and contribute touchdowns.
+Low End: A.J. Dillon: Suggests a role as a physical, early-down committee back valued primarily for grinding out yards and goal-line work, with limited dynamism or receiving contribution.
+Mention: Stephen Davis: An aspirational comparison highlighting elite power potential if Mafah fully refines that aspect.
+Fantasy Outlook (.5 PPR - As of April 28, 2025):
+Now on an NFL roster, Phil Mafah profiles primarily as an early-down and short-yardage/goal-line specialist early in his career. His size, power, and rushing acumen provide a solid foundation for fantasy value through carries and touchdowns. However, his .5 PPR upside is significantly limited by major deficiencies in both pass protection and receiving technique. Until he makes substantial improvements in these areas, he is unlikely to command significant passing-down work or reception volume. Expect him to function within a committee, offering RB2/Flex value based on rushing workload and TD opportunities, rather than as a high-volume PPR contributor.</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>James Conner - Leonard Fournette - X - AJ Dillon</t>
+  </si>
+  <si>
+    <t>Rotational starter</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Ray Rice - Jaylen Warren - X / Ray Davis</t>
   </si>
 </sst>
 </file>
@@ -1696,6 +2013,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,17 +2336,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -3566,6 +3887,318 @@
         <v>233</v>
       </c>
     </row>
+    <row r="54" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54">
+        <v>82.4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="H55" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56">
+        <v>73.8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59">
+        <v>73.8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>53</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H60" t="s">
+        <v>135</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61">
+        <v>81.5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>265</v>
+      </c>
+      <c r="F62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62">
+        <v>80.7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G63">
+        <v>83.4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>135</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64">
+        <v>83.4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>135</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G65">
+        <v>82.3</v>
+      </c>
+      <c r="H65" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I53" xr:uid="{57BB6BA8-4F4C-43D2-B7ED-38D13DC00C71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/common/RSP_Rookies.xlsx
+++ b/data/common/RSP_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9077611-E6F4-4DFA-8C66-E1A56DA4F83C}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{80AFF0B4-8318-5B46-9F51-C5E54E028385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D809908-1E06-438E-9F00-18100E73A9DE}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="15400" windowWidth="20840" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1685,8 +1685,56 @@
     <t>Chris Olave - - X</t>
   </si>
   <si>
+    <t>Christian Watson - David White / X</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Mecole Hardman - Keke Coutee - X</t>
+  </si>
+  <si>
+    <t>CeeDee Lamb - Santonio Holmes - X</t>
+  </si>
+  <si>
+    <t>Kenny Golladay - x - Matt Jones - Chase Claypool</t>
+  </si>
+  <si>
+    <t>Calvin Austin - Tyler Scott - Jalin Hyatt</t>
+  </si>
+  <si>
+    <t>Brandin Cooks - Randall Cobb - - X</t>
+  </si>
+  <si>
+    <t>Austin Ekeler - Jaydon Blue - - Bernard Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadillac Williams-Jerome Ford/X-Julius Jones-James Jackson </t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Blake Corum</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>James Conner - Leonard Fournette - X - AJ Dillon</t>
+  </si>
+  <si>
+    <t>Rotational starter</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Ray Rice - Jaylen Warren - X / Ray Davis</t>
+  </si>
+  <si>
     <t>Kyle Williams profiles as a developmental flanker whose fantasy value hinges on harnessing his speed and open-field ability while overcoming significant technical flaws. In .5 PPR formats, his potential comes from his knack for generating yards after the catch (YAC) due to excellent stop-start quickness and elusiveness. He shows promise against zone coverage and as a vertical threat, suggesting potential for chunk plays (yards) and touchdowns.
-However, his fantasy floor is low due to major concerns about his hands ("unforced drops," "clap-attacking," wide hands) which directly negates the .5 point per reception benefit and could limit his playing time. His route running against man coverage also needs significant refinement (setups, break sharpness) to command the consistent target volume needed for reliable PPR production.
+However, his fantasy floor is low due to major concerns about his hands (unforced drops, clap-attacking, wide hands) which directly negates the .5 point per reception benefit and could limit his playing time. His route running against man coverage also needs significant refinement (setups, break sharpness) to command the consistent target volume needed for reliable PPR production.
 Strengths (Highlighting .5 PPR Relevance):
 Big-Play Ability &amp; Speed: Possesses the speed to be a vertical threat, leading to potential long gains and touchdowns. His acceleration helps him beat pursuit angles.
 YAC Potential: Excellent stop-start quickness, elusiveness (spins, jump cuts), and vision in the open field mean he can turn shorter receptions (valuable in PPR) into significant gains. He shows toughness to break tackles.
@@ -1699,37 +1747,28 @@
 Ball Security: Mentioned carrying the ball loosely, which could lead to fumbles (negative fantasy points).
 Player Comparison Spectrum:
 High End (If he develops): Chris Olave: This comparison points to the potential for Williams to become a smooth, fast receiver capable of winning vertically and contributing significantly. Olave is a strong fantasy asset.
-Low End (If he fails to develop): "X" / Roster Cut/Special Teamer: This signifies a very low floor. If the drops and route running don't improve, he could quickly flame out of the league or be relegated to non-offensive roles, offering zero fantasy value.
+Low End (If he fails to develop): X / Roster Cut/Special Teamer: This signifies a very low floor. If the drops and route running don't improve, he could quickly flame out of the league or be relegated to non-offensive roles, offering zero fantasy value.
 Fantasy Outlook (.5 PPR):
 Williams is a late-round rookie draft flier based purely on athletic upside. His value in .5 PPR leagues is entirely dependent on significant development. If he improves his hands and route running, his speed and YAC ability could make him a dynamic, albeit likely inconsistent, fantasy asset capable of spike weeks. However, the drop issues present a serious threat to his playing time and target potential, making him a high-risk investment with a short leash, as the profile suggests cutting bait if there are no positive signs within 18 months.</t>
   </si>
   <si>
-    <t>Christian Watson - David White / X</t>
-  </si>
-  <si>
-    <t>Dont'e Thornton Jr. is the definition of a "looks good on paper" prospect whose fantasy value is tied almost entirely to his rare combination of size (6'5") and speed (reported 4.3 40-yard dash). In .5 PPR formats, his theoretical upside comes from the potential for explosive plays – long gains and touchdowns – created by this physical profile. He possesses the raw speed to separate vertically late in routes.
-However, significant technical flaws severely cap his current fantasy floor and ceiling, especially in PPR leagues that reward receptions. His primary weaknesses are major concerns with hands/catch technique (using a difficult "side-by-side clap" method, leading to drops/bobbles) and tracking the ball sub-optimally. Furthermore, his underdeveloped release package and inability to sink his hips and break sharply on non-vertical routes limit his ability to get open consistently and earn the target volume needed for reliable PPR production. He projects as a situational deep threat initially, needing significant refinement to become more.
+    <t>Isaac TeSlaa fits the mold of a classic boom-bust athlete at wide receiver. Possessing an impressive blend of size (6'4/214) and athletic traits (speed, quickness), his fantasy appeal, especially in .5 PPR, is currently tied more to his potential for big plays and touchdowns than reliable reception volume. He draws strong comparisons to players like Kenny Golladay and Chase Claypool – receivers who leveraged physical advantages for periods of strong production, sometimes aided by playing alongside established stars, before potentially fading if technical refinement didn't follow.
+TeSlaa shows reliable hands on well-thrown balls (perfect pinpoint catch rate in tracked games) but needs significant development in route running precision and contested catch technique to become a consistent fantasy asset.
 Strengths (Highlighting .5 PPR Relevance):
-Elite Size/Speed Combination: His 6'5" frame and 4.3 speed create enormous potential for mismatch opportunities, leading to high-yardage plays and touchdowns if he can put it all together.   
-Vertical Separation: Has the long speed to stack defenders and win deep downfield, offering potential for splash plays.   
-YAC Potential (Raw): Shows some decent footwork (spins, stutters) after the catch and is decisive, suggesting some ability to add yards, though the profile notes he plays slower than his timed speed might indicate.
+Elite Physical Profile: His combination of height, weight, and athleticism creates significant mismatch potential, particularly downfield and in the red zone, offering touchdown upside.
+Big Play Ability: Has the speed to win vertically and separate late on deep routes, leading to potential high-yardage receptions.
+Hands (in Space): Demonstrates strong hand-eye coordination and reliability when catching catchable targets away from heavy contest, as evidenced by his perfect pinpoint target catch rate.
+Potential Mismatch Role: Could thrive early if placed in an offense where other weapons draw primary coverage, allowing him to exploit favorable matchups (the Golladay/Claypool Production Privilege).
 Weaknesses (Highlighting .5 PPR Impact):
-Hands/Catch Technique: This is a critical flaw for fantasy, especially PPR. His tendency to "clap-attack" the ball side-by-side drastically increases drop probability, negating potential receptions and points.
-Pass Tracking: Inconsistent tracking (using the wrong shoulder) makes catching difficult deep passes even harder, lowering the efficiency of his potential primary role.
-Route Running &amp; Releases: Lacks refinement in releases (plays slow off the line) and doesn't sink his hips effectively on breaks. This makes him predictable (mostly vertical) and unable to consistently earn targets on the shorter/intermediate routes that often build PPR volume.
-Ball Security: History of fumbles due to carrying the ball loosely, particularly during dynamic movements, leading to potential negative fantasy points.
-Overall Polish/Consistency: The theme is that his physical tools haven't translated effectively or consistently to on-field production yet.
+Route Running Refinement: This is a major deficiency. Lack of precision, snap, and sharpness in breaks, along with drifting, will limit his ability to consistently separate against NFL corners and command the target volume needed for steady .5 PPR scoring.
+Contested Catch Technique/Positioning: Despite his size, struggles with positioning, suboptimal attack angles (clapping noted), and fading away from contact limit his effectiveness in traffic. This results in missed opportunities and drops (shown in stats vs. contact/tight coverage), directly hindering his reception count for PPR leagues.
+Ball Security: Has shown issues carrying the ball loose, leading to fumbles from backside pursuit, which results in negative fantasy points.
 Player Comparison Spectrum:
-High End: Christian Watson: This comparison highlights the potential for a physically gifted receiver who can produce massive spike weeks via big plays, but likely comes with inconsistency and relies heavily on athletic traits over refinement.
-Low End: David White / X: Represents the significant bust potential if Thornton cannot overcome his technical flaws, potentially becoming a career backup or out of the league.
-Fantasy Outlook (.5 PPR):
-Thornton is a developmental project or a "taxi squad stash" in dynasty leagues. His immediate path to fantasy relevance is narrow, likely relying on manufacturing touches (screens) or hitting on low-probability deep shots as a situational player. His .5 PPR value is severely hampered by the hands and route running issues, which prevent consistent target earning and reception volume. He offers boom/bust potential based on his physical gifts, fitting the archetype of an inconsistent deep threat (best case early on) or a player who might thrive temporarily in a specific mismatch role (like the Golladay/Claypool example) if landing in an ideal situation. Don't expect reliable production early in his career; he's a long-term gamble on athletic upside overcoming significant technical hurdles.</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>Mecole Hardman - Keke Coutee - X</t>
+Kenny Golladay / Chase Claypool: These comparisons define the archetype – physically gifted receivers capable of dominant stretches and highlight plays, but often inconsistent due to underdeveloped routes and potentially unreliable hands in contested situations. Suggests a volatile fantasy producer.
+Matt Jones (WR): Another example of a big athlete conversion project.
+X (Low End): Represents the risk that the lack of technical skill prevents him from ever becoming a consistent NFL contributor.
+Fantasy Outlook (.5 PPR - As of April 2025):
+TeSlaa is likely on an NFL roster now (post-draft). He remains a high-risk, high-reward developmental prospect for fantasy. His .5 PPR value is heavily skewed towards touchdown dependency and splash plays resulting from his athletic gifts, rather than consistent reception volume derived from polished receiver skills. Be wary of potential early production spikes if he lands in a favorable situation (Production Privilege) – the profile strongly suggests this could be a sell-high window if not accompanied by tangible improvement in his route running and contested catch ability. Long-term, consistent .5 PPR relevance requires significant technical development that is not yet evident. He's a volatile fantasy asset best viewed as a roster back-end player with upside, not a reliable weekly starter currently.</t>
   </si>
   <si>
     <t>Okay, let's try summarizing Jaylin Lane's RSP profile again from a .5 PPR fantasy football perspective:
@@ -1741,8 +1780,8 @@
 Potential Gadget Role: Teams may scheme touches for him via motion, sweeps, and screens, offering additional avenues for production beyond traditional routes, which can bolster his value in formats rewarding any reception or yardage.
 Good Ball Security: Generally takes care of the football, minimizing the risk of negative points from fumbles.
 Weaknesses (.5 PPR Perspective):
-Catch Point Deficiencies: This is his most significant flaw for fantasy, especially PPR. The profile highlights major struggles against tight coverage and contact, leading to drops and appearing "distracted" or "indecisive." This directly limits his ability to secure the receptions needed for consistent PPR scoring.
-Limited Route Refinement: He wins on a restricted "menu" of routes and needs development, particularly on the perimeter and with intermediate route breaks. This prevents him from being a reliable target earner across the full route tree, capping his potential target volume.
+Catch Point Deficiencies: This is his most significant flaw for fantasy, especially PPR. The profile highlights major struggles against tight coverage and contact, leading to drops and appearing distracted or indecisive. This directly limits his ability to secure the receptions needed for consistent PPR scoring.
+Limited Route Refinement: He wins on a restricted menu of routes and needs development, particularly on the perimeter and with intermediate route breaks. This prevents him from being a reliable target earner across the full route tree, capping his potential target volume.
 Scheme Dependency: Because of his limitations, his production will likely depend heavily on how effectively his team schemes him open and manufactures touches for him.
 Player Comparison Spectrum:
 Mecole Hardman (Primary): This comparison sets the expectation: a player valued for speed and gadget usability, but inconsistent as a pure receiver, particularly in contested situations.
@@ -1752,15 +1791,12 @@
 In .5 PPR leagues that don't include return yardage, Jaylin Lane profiles as a volatile, low-volume fantasy asset. His fantasy points will likely come in unpredictable bursts via long plays or schemed touches, rather than steady week-to-week reception totals. He's a classic boom-bust player, making him better suited for Best Ball formats or as a late-round dynasty stash/waiver wire watchlist candidate. Don't draft him expecting reliable weekly production; you're betting on his speed creating enough splash plays to be occasionally valuable.</t>
   </si>
   <si>
-    <t>CeeDee Lamb - Santonio Holmes - X</t>
-  </si>
-  <si>
     <t>Chimere Dike profiles as a physically imposing and reliable receiver with a promising outlook for .5 PPR formats. His blend of speed, physicality, strong hands, and ability after the catch suggests he could be an early contributor. His high marks for contested catches and reliability (backed by strong catch-rate stats in the tracked games) provide a solid foundation for PPR scoring, as he's likely to convert targets into catches frequently. Adding his significant YAC potential further boosts his value in leagues rewarding half a point per reception.
-The main area for development is adding subtlety and varied pacing to his route running; currently described as "all gas, no brake," refining this could unlock higher target volume against NFL defenses. However, his current skillset, including valuable blocking ability that should help him see the field, points towards a player who can make an impact.
+The main area for development is adding subtlety and varied pacing to his route running; currently described as all gas, no brake, refining this could unlock higher target volume against NFL defenses. However, his current skillset, including valuable blocking ability that should help him see the field, points towards a player who can make an impact.
 Strengths (Highlighting .5 PPR Relevance):
-Reliable Hands &amp; Contested Catches: Dike demonstrates strong hands, performing well on contested targets and against contact. His high catch rate on "Pinpoint" targets in the tracked games underscores this reliability, which is crucial for securing the .5 points per reception.
+Reliable Hands &amp; Contested Catches: Dike demonstrates strong hands, performing well on contested targets and against contact. His high catch rate on Pinpoint targets in the tracked games underscores this reliability, which is crucial for securing the .5 points per reception.
 Yards After Catch (YAC) Ability: Described as a physical runner with good vision who can break tackles and drag defenders, Dike excels after the catch. This turns receptions into larger point gains through added yardage and touchdown potential.
-Versatility &amp; Physicality: Possesses good size (6'1"/196) and speed, capable of winning downfield and on routes across the field (crossers, screens, RPOs). His physicality helps both in contested situations and after the catch.
+Versatility &amp; Physicality: Possesses good size (6'1/196) and speed, capable of winning downfield and on routes across the field (crossers, screens, RPOs). His physicality helps both in contested situations and after the catch.
 Blocking Prowess: Noted as an asset in blocking, which coaches value and often leads to more playing time, thus increasing opportunities for targets.
 Weaknesses (Highlighting .5 PPR Impact):
 Route Running Nuance: Lacks subtlety and change-of-pace in his routes currently. While his athleticism often wins now, developing more refined setups, breaks, and pacing would help him consistently separate against NFL corners and potentially earn higher target volume.
@@ -1774,38 +1810,32 @@
 Dike appears to be a promising prospect for .5 PPR leagues, likely commanding decent draft capital (reflected in his WR23 RSP rank). His profile is well-suited for this format due to the combination of reliable hands (high catch conversion rate) and strong YAC ability (maximizing points post-reception). While route refinement is key to unlocking elite volume, he has the tools to contribute early as a rotational starter. He should be considered a strong candidate in rookie drafts, potentially offering immediate value with significant long-term upside.</t>
   </si>
   <si>
-    <t>Isaac TeSlaa fits the mold of a classic "boom-bust" athlete at wide receiver. Possessing an impressive blend of size (6'4"/214) and athletic traits (speed, quickness), his fantasy appeal, especially in .5 PPR, is currently tied more to his potential for big plays and touchdowns than reliable reception volume. He draws strong comparisons to players like Kenny Golladay and Chase Claypool – receivers who leveraged physical advantages for periods of strong production, sometimes aided by playing alongside established stars, before potentially fading if technical refinement didn't follow.
-TeSlaa shows reliable hands on well-thrown balls (perfect pinpoint catch rate in tracked games) but needs significant development in route running precision and contested catch technique to become a consistent fantasy asset.
+    <t>Dont'e Thornton Jr. is the definition of a looks good on paper prospect whose fantasy value is tied almost entirely to his rare combination of size (6'5) and speed (reported 4.3 40-yard dash). In .5 PPR formats, his theoretical upside comes from the potential for explosive plays – long gains and touchdowns – created by this physical profile. He possesses the raw speed to separate vertically late in routes.
+However, significant technical flaws severely cap his current fantasy floor and ceiling, especially in PPR leagues that reward receptions. His primary weaknesses are major concerns with hands/catch technique (using a difficult side-by-side clap method, leading to drops/bobbles) and tracking the ball sub-optimally. Furthermore, his underdeveloped release package and inability to sink his hips and break sharply on non-vertical routes limit his ability to get open consistently and earn the target volume needed for reliable PPR production. He projects as a situational deep threat initially, needing significant refinement to become more.
 Strengths (Highlighting .5 PPR Relevance):
-Elite Physical Profile: His combination of height, weight, and athleticism creates significant mismatch potential, particularly downfield and in the red zone, offering touchdown upside.
-Big Play Ability: Has the speed to win vertically and separate late on deep routes, leading to potential high-yardage receptions.
-Hands (in Space): Demonstrates strong hand-eye coordination and reliability when catching catchable targets away from heavy contest, as evidenced by his perfect pinpoint target catch rate.
-Potential Mismatch Role: Could thrive early if placed in an offense where other weapons draw primary coverage, allowing him to exploit favorable matchups (the "Golladay/Claypool Production Privilege").
+Elite Size/Speed Combination: His 6'5 frame and 4.3 speed create enormous potential for mismatch opportunities, leading to high-yardage plays and touchdowns if he can put it all together.   
+Vertical Separation: Has the long speed to stack defenders and win deep downfield, offering potential for splash plays.   
+YAC Potential (Raw): Shows some decent footwork (spins, stutters) after the catch and is decisive, suggesting some ability to add yards, though the profile notes he plays slower than his timed speed might indicate.
 Weaknesses (Highlighting .5 PPR Impact):
-Route Running Refinement: This is a major deficiency. Lack of precision, snap, and sharpness in breaks, along with drifting, will limit his ability to consistently separate against NFL corners and command the target volume needed for steady .5 PPR scoring.
-Contested Catch Technique/Positioning: Despite his size, struggles with positioning, suboptimal attack angles (clapping noted), and fading away from contact limit his effectiveness in traffic. This results in missed opportunities and drops (shown in stats vs. contact/tight coverage), directly hindering his reception count for PPR leagues.
-Ball Security: Has shown issues carrying the ball loose, leading to fumbles from backside pursuit, which results in negative fantasy points.
+Hands/Catch Technique: This is a critical flaw for fantasy, especially PPR. His tendency to clap-attack the ball side-by-side drastically increases drop probability, negating potential receptions and points.
+Pass Tracking: Inconsistent tracking (using the wrong shoulder) makes catching difficult deep passes even harder, lowering the efficiency of his potential primary role.
+Route Running &amp; Releases: Lacks refinement in releases (plays slow off the line) and doesn't sink his hips effectively on breaks. This makes him predictable (mostly vertical) and unable to consistently earn targets on the shorter/intermediate routes that often build PPR volume.
+Ball Security: History of fumbles due to carrying the ball loosely, particularly during dynamic movements, leading to potential negative fantasy points.
+Overall Polish/Consistency: The theme is that his physical tools haven't translated effectively or consistently to on-field production yet.
 Player Comparison Spectrum:
-Kenny Golladay / Chase Claypool: These comparisons define the archetype – physically gifted receivers capable of dominant stretches and highlight plays, but often inconsistent due to underdeveloped routes and potentially unreliable hands in contested situations. Suggests a volatile fantasy producer.
-Matt Jones (WR): Another example of a big athlete conversion project.
-X (Low End): Represents the risk that the lack of technical skill prevents him from ever becoming a consistent NFL contributor.
-Fantasy Outlook (.5 PPR - As of April 2025):
-TeSlaa is likely on an NFL roster now (post-draft). He remains a high-risk, high-reward developmental prospect for fantasy. His .5 PPR value is heavily skewed towards touchdown dependency and splash plays resulting from his athletic gifts, rather than consistent reception volume derived from polished receiver skills. Be wary of potential early production spikes if he lands in a favorable situation ("Production Privilege") – the profile strongly suggests this could be a "sell-high" window if not accompanied by tangible improvement in his route running and contested catch ability. Long-term, consistent .5 PPR relevance requires significant technical development that is not yet evident. He's a volatile fantasy asset best viewed as a roster back-end player with upside, not a reliable weekly starter currently.</t>
-  </si>
-  <si>
-    <t>Kenny Golladay - x - Matt Jones - Chase Claypool</t>
-  </si>
-  <si>
-    <t>Calvin Austin - Tyler Scott - Jalin Hyatt</t>
-  </si>
-  <si>
-    <t>Jimmy Horn Jr. is a significantly undersized (5'8", 174 lbs) but explosive athlete whose fantasy potential hinges entirely on his speed and quickness translating into big plays. His profile aligns with other small, speedy specialists (like Calvin Austin III, Tyler Scott, etc.), suggesting a limited, scheme-dependent role in the NFL. For .5 PPR leagues, his value is hindered by notable concerns about his hands/catch technique and route running nuance, making consistent reception volume unlikely.   
+High End: Christian Watson: This comparison highlights the potential for a physically gifted receiver who can produce massive spike weeks via big plays, but likely comes with inconsistency and relies heavily on athletic traits over refinement.
+Low End: David White / X: Represents the significant bust potential if Thornton cannot overcome his technical flaws, potentially becoming a career backup or out of the league.
+Fantasy Outlook (.5 PPR):
+Thornton is a developmental project or a taxi squad stash in dynasty leagues. His immediate path to fantasy relevance is narrow, likely relying on manufacturing touches (screens) or hitting on low-probability deep shots as a situational player. His .5 PPR value is severely hampered by the hands and route running issues, which prevent consistent target earning and reception volume. He offers boom/bust potential based on his physical gifts, fitting the archetype of an inconsistent deep threat (best case early on) or a player who might thrive temporarily in a specific mismatch role (like the Golladay/Claypool example) if landing in an ideal situation. Don't expect reliable production early in his career; he's a long-term gamble on athletic upside overcoming significant technical hurdles.</t>
+  </si>
+  <si>
+    <t>Jimmy Horn Jr. is a significantly undersized (5'8, 174 lbs) but explosive athlete whose fantasy potential hinges entirely on his speed and quickness translating into big plays. His profile aligns with other small, speedy specialists (like Calvin Austin III, Tyler Scott, etc.), suggesting a limited, scheme-dependent role in the NFL. For .5 PPR leagues, his value is hindered by notable concerns about his hands/catch technique and route running nuance, making consistent reception volume unlikely.   
 Strengths (Highlighting .5 PPR Relevance):
 Speed and Elusiveness: Possesses the speed to be a vertical threat and the quickness/stop-start ability to create yards after the catch (YAC) on shorter throws or designed touches. His spin move and agility help maximize gains.
 Vision and Creativity: Shows patience setting up blocks and decisiveness hitting creases, both after the catch and on potential gadget plays (reverses, etc.).
 Toughness (Relative to Size): Plays with good contact balance for his frame, keeps feet moving through wraps, and can win collisions against defensive backs to gain extra yards.
 Weaknesses (Highlighting .5 PPR Impact):
-Hands/Catch Technique: This is a major concern for PPR formats. The profile notes lapses in technique, particularly "clap-attacking" the ball, even on some routine catches. He also struggles with positioning, sometimes allowing defenders access to the ball. This inconsistency directly limits his ability to secure receptions.
+Hands/Catch Technique: This is a major concern for PPR formats. The profile notes lapses in technique, particularly clap-attacking the ball, even on some routine catches. He also struggles with positioning, sometimes allowing defenders access to the ball. This inconsistency directly limits his ability to secure receptions.
 Size Limitations: His small frame inherently limits his catch radius and makes him highly unlikely to win contested catches against NFL defenders.
 Route Running Nuance: Lacks sufficient variation and refinement in releases and breaks to consistently beat NFL coverage without being schemed open. Predictability in movements limits separation potential.
 Focus Through Contact: Has difficulty securing catches through hard contact or when adjusting significantly to off-target throws.   
@@ -1814,10 +1844,7 @@
 Calvin Austin III / Tyler Scott / Jalin Hyatt / Charlie Jones / Anthony Gould: This group consists entirely of small, fast receivers. Some are primarily vertical threats (Hyatt, potentially Scott/Austin), while others fit more of a slot/returner mold (Jones, Gould, potentially Austin). None project as high-volume receivers, reinforcing Horn's likely role as a specialist.
 X (Low End): Represents the possibility that his size and technical limitations prevent him from sticking in the league.
 Fantasy Outlook (.5 PPR - As of April 2025):
-Given the profile's lukewarm "monitor from afar" advice (likely from pre-draft time) and his specific skillset/limitations, Jimmy Horn Jr. is a long shot for .5 PPR fantasy relevance. He likely entered the league as a late-round pick or UDFA and is battling for a roster spot, probably needing to excel on special teams (returns) to stick. His fantasy value in standard .5 PPR leagues is minimal. He profiles as a low-volume gadget player whose contributions would come sporadically via splash plays generated by his speed, not consistent receptions. Unless your league heavily rewards return yardage, he is not a recommended fantasy asset.</t>
-  </si>
-  <si>
-    <t>Brandin Cooks - Randall Cobb - - X</t>
+Given the profile's lukewarm monitor from afar advice (likely from pre-draft time) and his specific skillset/limitations, Jimmy Horn Jr. is a long shot for .5 PPR fantasy relevance. He likely entered the league as a late-round pick or UDFA and is battling for a roster spot, probably needing to excel on special teams (returns) to stick. His fantasy value in standard .5 PPR leagues is minimal. He profiles as a low-volume gadget player whose contributions would come sporadically via splash plays generated by his speed, not consistent receptions. Unless your league heavily rewards return yardage, he is not a recommended fantasy asset.</t>
   </si>
   <si>
     <t>Jordan Watkins profiles as a speed-based receiver with potential value as a return specialist. 1  While he shows promise with his athleticism, improved route craft (especially in releases and setups noted in 2024), and ability after the catch, significant concerns about his hands and catch technique severely limit his current .5 PPR fantasy appeal. His path to an NFL roster likely hinges on special teams contributions, with a steep climb needed to earn significant offensive snaps, especially given his projected low draft capital. The comparisons to Brandin Cooks and Randall Cobb suggest a potential ceiling if major development occurs, but he's currently viewed as a low-end contributor.   
@@ -1830,7 +1857,7 @@
 YAC Ability: Quick feet, efficient moves in space, and effective pacing allow him to create extra yards after the catch or on designed touches.
 Special Teams Value: Experience and likely fit as a punt returner provide his clearest path to securing a roster spot and potentially contributing fantasy points in leagues that reward return yardage.
 Weaknesses (Highlighting .5 PPR Impact):
-Hands/Catch Technique: Major Concern. The profile explicitly notes he "must continue working on his hands," highlighting excessive use of underhand technique where overhand is needed, and lapses with "clap-attacks." This inconsistency directly threatens his ability to secure receptions, which is critical for PPR value. Leaving his feet unnecessarily also limits reliability.
+Hands/Catch Technique: Major Concern. The profile explicitly notes he must continue working on his hands, highlighting excessive use of underhand technique where overhand is needed, and lapses with clap-attacks. This inconsistency directly threatens his ability to secure receptions, which is critical for PPR value. Leaving his feet unnecessarily also limits reliability.
 Route Consistency: While improving, still needs refinement. Wasted motion in releases, rounding off intermediate breaks, and past issues with zone awareness need continued work to consistently earn NFL targets.
 Opportunity Risk: Projected low draft capital makes it difficult to earn offensive snaps over higher-invested players. His path to a significant role likely requires injuries ahead of him or significant, rapid development.
 Player Comparison Spectrum:
@@ -1838,16 +1865,13 @@
 Mid Range: Randall Cobb: Suggests a potential role as a versatile slot receiver and gadget player, offering useful but likely complementary production.
 Low End: X: Signifies the risk that the hands issues and lack of opportunity prevent him from making a fantasy impact.
 Fantasy Outlook (.5 PPR - As of April 2025):
-Watkins is likely a late-round draft pick or UDFA competing for a spot on an NFL roster or practice squad. For standard .5 PPR leagues (without return yardage), his fantasy value is currently minimal. His immediate contributions are expected on special teams. To become fantasy relevant offensively, he needs to overcome significant hand consistency issues and continue refining his routes while hoping for an opportunity to emerge. He's a deep dynasty stash or someone to "monitor from afar," primarily gaining relevance if he locks down a returner job in leagues that score those yards heavily.</t>
-  </si>
-  <si>
-    <t>Austin Ekeler - Jaydon Blue - - Bernard Scott</t>
-  </si>
-  <si>
-    <t>Jaydon Blue presents one of the most compelling high-risk, high-reward profiles for fantasy football. He possesses an exciting blend of "game-breaking speed," strong receiving skills, good vision, and effective power/balance for his size (5'9", 196 lbs). His potential as a receiver, drawing comparisons to a faster Austin Ekeler, makes him incredibly intriguing for .5 PPR formats. However, his entire evaluation is overshadowed by a critical flaw: historically poor ball security. His college fumble rate (1 per 45.5 touches overall, worsening in his final year) falls well below a threshold historically indicative of NFL success, per RSP data, making it a potential "death knell" for his career prospects if not corrected immediately.
+Watkins is likely a late-round draft pick or UDFA competing for a spot on an NFL roster or practice squad. For standard .5 PPR leagues (without return yardage), his fantasy value is currently minimal. His immediate contributions are expected on special teams. To become fantasy relevant offensively, he needs to overcome significant hand consistency issues and continue refining his routes while hoping for an opportunity to emerge. He's a deep dynasty stash or someone to monitor from afar, primarily gaining relevance if he locks down a returner job in leagues that score those yards heavily.</t>
+  </si>
+  <si>
+    <t>Jaydon Blue presents one of the most compelling high-risk, high-reward profiles for fantasy football. He possesses an exciting blend of game-breaking speed, strong receiving skills, good vision, and effective power/balance for his size (5'9, 196 lbs). His potential as a receiver, drawing comparisons to a faster Austin Ekeler, makes him incredibly intriguing for .5 PPR formats. However, his entire evaluation is overshadowed by a critical flaw: historically poor ball security. His college fumble rate (1 per 45.5 touches overall, worsening in his final year) falls well below a threshold historically indicative of NFL success, per RSP data, making it a potential death knell for his career prospects if not corrected immediately.
 Strengths (Highlighting .5 PPR Relevance):
-Receiving Upside: Blue is noted for "strong receiving skills" and promising route detail ("patient-but-sudden moves," effective hip shifts). He tracks the ball well, catches away from his frame, and understands zone concepts. This projects favorably for earning targets and racking up receptions, the cornerstone of PPR value.
-Speed and Acceleration: Possesses "game-breaking speed" and acceleration to beat angles and potentially house any touch. This adds explosive play upside to both rushes and receptions.
+Receiving Upside: Blue is noted for strong receiving skills and promising route detail (patient-but-sudden moves, effective hip shifts). He tracks the ball well, catches away from his frame, and understands zone concepts. This projects favorably for earning targets and racking up receptions, the cornerstone of PPR value.
+Speed and Acceleration: Possesses game-breaking speed and acceleration to beat angles and potentially house any touch. This adds explosive play upside to both rushes and receptions.
 Vision and Decision-Making: Generally makes good decisions, reads leverage well behind pullers, and shows maturity in key situations. Helps maximize yardage on his touches.
 Elusiveness &amp; Power/Balance: Combines multiple effective open-field moves with good contact balance and power for his size, allowing him to create yards independently and finish runs effectively.
 Weaknesses (Highlighting .5 PPR Impact):
@@ -1863,21 +1887,15 @@
 Jaydon Blue is now on an NFL roster (post-draft) and represents a true boom-or-bust fantasy asset. His .5 PPR ceiling is immense due to his receiving prowess and explosive speed. However, the historically poor ball security presents an enormous risk, potentially making him unusable if it continues at the professional level. His fantasy success hinges entirely on fixing the fumbling issue. He was likely a mid-round rookie draft pick where managers are betting on the upside while accepting the significant bust potential. Monitor his ball security and usage closely in training camp and preseason; if he protects the ball, his value could soar, but continued fumbles will likely bury him on the depth chart. He's a high-variance lottery ticket.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadillac Williams-Jerome Ford/X-Julius Jones-James Jackson </t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>Jo’quavious “Woody” Marks projects as a high-floor, well-rounded running back with immediate contributor potential, particularly valuable in .5 PPR formats. His profile highlights significant strengths in pass protection (one of the best in his class) and ball security (excellent low fumble rate), traits that build coaching trust and earn playing time, especially on passing downs. Combined with solid receiving skills and "star-caliber" burst, Marks has a clear path to a rotational role early in his career. While he may lack elite long speed, his reliability, vision, and functional power make him a safe bet to carve out a productive role in a committee, with the ceiling of a dependable lead back or high-end injury replacement.   
+    <t>Jo’quavious “Woody” Marks projects as a high-floor, well-rounded running back with immediate contributor potential, particularly valuable in .5 PPR formats. His profile highlights significant strengths in pass protection (one of the best in his class) and ball security (excellent low fumble rate), traits that build coaching trust and earn playing time, especially on passing downs. Combined with solid receiving skills and star-caliber burst, Marks has a clear path to a rotational role early in his career. While he may lack elite long speed, his reliability, vision, and functional power make him a safe bet to carve out a productive role in a committee, with the ceiling of a dependable lead back or high-end injury replacement.   
 Strengths (Highlighting .5 PPR Relevance):
 Pass Protection: Evaluated as one of the best blockers in his draft class. This skill is crucial for earning snaps on third downs and in passing situations, directly increasing his opportunities for targets and receptions in PPR formats.
 Ball Security: Boasts an excellent track record with very few fumbles (1 per 176 touches career, 1 per 275 over the last three seasons). Reliability is key for staying on the field and maximizing touches.
 Receiving Ability: Shows good hands (including one-handed catches), adjusts well to targets, tracks the ball effectively, and demonstrates solid boundary awareness. A reliable outlet receiver.   
-Burst &amp; Acceleration: Possesses "star-caliber" burst, allowing him to hit creases quickly and accelerate effectively into the second level, creating chunk plays even without elite top-end speed.   
+Burst &amp; Acceleration: Possesses star-caliber burst, allowing him to hit creases quickly and accelerate effectively into the second level, creating chunk plays even without elite top-end speed.   
 Vision &amp; Power: Generally displays good vision (especially on gap/power runs), runs with good pad level, and shows functional power and contact balance to break tackles and finish runs.   
 Weaknesses (Highlighting .5 PPR Impact):
-Long Speed: While adequate ("good enough to flip the field"), he lacks elite breakaway speed, which may limit the frequency of 60+ yard touchdown runs compared to true burners.   
+Long Speed: While adequate (good enough to flip the field), he lacks elite breakaway speed, which may limit the frequency of 60+ yard touchdown runs compared to true burners.   
 Route Running Nuance: Needs refinement in understanding when to settle versus continue running against zone coverage, slightly limiting his ceiling as a dynamic receiving weapon.
 Impatience (Inside Zone): Sometimes hits inside zone creases too quickly without fully allowing blocks to develop, potentially leaving some yardage untapped on those specific plays.
 Player Comparison Spectrum:
@@ -1888,18 +1906,15 @@
 Having entered the NFL, Woody Marks profiles as one of the safer running back investments from his draft class, particularly appealing in .5 PPR leagues. His elite pass protection and stellar ball security should grant him early opportunities, especially in passing situations, providing a solid reception floor. While his upside might be capped slightly by average long speed, his burst, receiving skills, and overall reliability make him an ideal committee back and a high-value handcuff capable of producing RB2/Flex numbers when given volume. He's a dependable asset likely to contribute throughout his rookie contract.</t>
   </si>
   <si>
-    <t>Blake Corum</t>
-  </si>
-  <si>
-    <t>Jordan James presents a compelling profile as a high-floor, versatile running back built on a foundation of exceptional reliability. His standout traits are perfect college ball security (zero fumbles in 430 career touches) and elite pass protection skills, qualities highly valued by NFL coaches. These strengths should earn him trust and playing time early. He's a decisive runner with good vision, power, and contact balance, drawing comparisons to Blake Corum. However, his upside in .5 PPR formats faces a significant hurdle: poor receiving technique. While his blocking warrants passing-down snaps, his tendency to "clap-trap" targets and fight the ball needs major improvement to unlock his full fantasy potential.
+    <t>Jordan James presents a compelling profile as a high-floor, versatile running back built on a foundation of exceptional reliability. His standout traits are perfect college ball security (zero fumbles in 430 career touches) and elite pass protection skills, qualities highly valued by NFL coaches. These strengths should earn him trust and playing time early. He's a decisive runner with good vision, power, and contact balance, drawing comparisons to Blake Corum. However, his upside in .5 PPR formats faces a significant hurdle: poor receiving technique. While his blocking warrants passing-down snaps, his tendency to clap-trap targets and fight the ball needs major improvement to unlock his full fantasy potential.
 Strengths (Highlighting .5 PPR Relevance):
 Perfect Ball Security: Zero fumbles in his college career is an elite trait that builds immense coach trust, maximizes opportunities (especially in high-leverage situations), and avoids negative fantasy points.
 Elite Pass Protection: Considered one of the best blockers in his class, excelling in diagnosing blitzes, positioning, and technique. This skill is invaluable for securing passing-down roles, which directly translates to opportunities for targets and receptions in PPR leagues.
-Vision &amp; Decision Making: A strong "game manager" who reads plays well, hits tight creases decisively, and protects the ball in key situations. Maximizes rushing efficiency.
+Vision &amp; Decision Making: A strong game manager who reads plays well, hits tight creases decisively, and protects the ball in key situations. Maximizes rushing efficiency.
 Well-Rounded Rushing Skills: Blends good power, contact balance (direct and indirect), and elusiveness (spin, jump cuts, pressure cuts). He finishes runs effectively and can create yards independently.
 Versatility: Profiled as potentially the most versatile back among compared peers, capable of handling various duties.
 Weaknesses (Highlighting .5 PPR Impact):
-Receiving Technique: This is the primary concern for his PPR ceiling. Despite blocking prowess suggesting passing down work, his technique is described as "sloppy," prone to "clap-trapping," drops, and juggling. This inconsistency severely limits his reliability as a pass-catcher and needs significant refinement.
+Receiving Technique: This is the primary concern for his PPR ceiling. Despite blocking prowess suggesting passing down work, his technique is described as sloppy, prone to clap-trapping, drops, and juggling. This inconsistency severely limits his reliability as a pass-catcher and needs significant refinement.
 Long Speed: Possesses adequate, but not elite, top-end speed. This limits his potential for long, breakaway touchdown runs compared to true speed merchants.
 Blocking Polish (Minor): While generally excellent, occasional overextension or lack of a powerful punch (despite good timing/position) are minor technical refinement points.
 Player Comparison Spectrum:
@@ -1908,13 +1923,13 @@
 Jordan James, now on an NFL roster, profiles as one of the safest RB prospects from his draft class due to his flawless ball security and elite blocking. These traits give him a clear path to earning snaps. His .5 PPR value hinges almost entirely on whether he can fix his receiving technique. If his hands improve significantly, his blocking skills could make him a three-down workhorse with high-end RB2 or even RB1 potential in PPR formats. If his receiving technique remains poor, he projects as a highly reliable committee back or early-down grinder whose fantasy value (likely solid RB2/Flex) comes more from rushing and goal-line work, with his PPR upside capped despite being on the field for passing plays. He represents a secure floor with contingent upside based on receiving development.</t>
   </si>
   <si>
-    <t>Kyle Monangai projects as a tough, intelligent, and highly reliable running back with a distinct low center of gravity (5'8", 211 lbs) and excellent power. His fantasy profile boasts an extremely high floor due to his perfect college ball security (zero fumbles in 708 touches) and strong rushing traits (vision, contact balance, short-area quickness). He draws comparisons to powerful, compact backs like Ray Rice or Jaylen Warren. However, his .5 PPR ceiling is currently limited by significant weaknesses in pass protection and an underdeveloped receiving profile. While functional as a check-down, he needs considerable improvement in the passing game facets to become more than a potent early-down/goal-line contributor.
+    <t>Kyle Monangai projects as a tough, intelligent, and highly reliable running back with a distinct low center of gravity (5'8, 211 lbs) and excellent power. His fantasy profile boasts an extremely high floor due to his perfect college ball security (zero fumbles in 708 touches) and strong rushing traits (vision, contact balance, short-area quickness). He draws comparisons to powerful, compact backs like Ray Rice or Jaylen Warren. However, his .5 PPR ceiling is currently limited by significant weaknesses in pass protection and an underdeveloped receiving profile. While functional as a check-down, he needs considerable improvement in the passing game facets to become more than a potent early-down/goal-line contributor.
 Strengths (Highlighting .5 PPR Relevance):
 Perfect Ball Security: Zero fumbles over an extensive college career builds immediate trust and ensures he maximizes opportunities. A massive plus for securing playing time and avoiding negative points.
 Power &amp; Contact Balance: Excels at breaking tackles, running through contact with low pad level, and finishing runs. His ability to handle direct and indirect contact makes him effective between the tackles and likely earns him goal-line work (touchdown upside).
 Vision &amp; Decision Making: Smart, patient runner who reads blocks well, handles tight creases effectively, and generally avoids negative plays. Maximizes yardage on the ground.
 Short-Area Quickness/Elusiveness: Despite lacking long speed, he possesses good feet, stop-start ability, and hip mobility to make defenders miss in confined spaces.
-Toughness/Stamina: Described with a "never say die" attitude and high play stamina, suggesting he can handle a significant workload.
+Toughness/Stamina: Described with a never say die attitude and high play stamina, suggesting he can handle a significant workload.
 Weaknesses (Highlighting .5 PPR Impact):
 Pass Protection: This is his most significant weakness. The profile notes issues with positioning, balance, and technique (lacks punch, catches defenders). This will likely limit his snaps on obvious passing downs, severely capping his target opportunities and PPR ceiling until improved.
 Receiving Skills/Usage: While capable of catching, his technique needs refinement (allows ball into frame), and he had limited usage as a receiver in college. Currently projects as more of a check-down option rather than a dynamic receiving threat, limiting PPR upside.
@@ -1927,14 +1942,14 @@
 Now in the NFL, Kyle Monangai stands out as a high-floor prospect due to his exceptional ball security and powerful, reliable rushing style. He's likely to earn carries early, especially in short-yardage and goal-line situations. However, his .5 PPR value is currently constrained by his subpar pass protection and limited receiving profile. To unlock significant PPR production, he must make major strides as a blocker to stay on the field during passing downs. Without that development, he projects as a valuable early-down grinder and committee member (think Jaylen Warren), offering RB2/Flex potential driven by rushing volume and touchdowns, but with a limited ceiling in the receiving game. He's a safe investment with contingent upside tied to passing game improvement.</t>
   </si>
   <si>
-    <t>Phil Mafah enters the league as a big-bodied (6'0", 234 lbs) power runner with good vision, patience, and contact balance, drawing comparisons to backs like James Conner, Leonard Fournette, or A.J. Dillon. His strengths lie in his ability to handle volume between the tackles, break tackles, and finish runs, giving him a solid floor for rushing production and touchdown potential. However, his value in .5 PPR formats is currently capped by significant weaknesses in the passing game. Both his pass protection technique/consistency and his receiving technique (prone to "clap-attacks") need considerable refinement for him to evolve beyond an early-down/goal-line role.   
+    <t>Phil Mafah enters the league as a big-bodied (6'0, 234 lbs) power runner with good vision, patience, and contact balance, drawing comparisons to backs like James Conner, Leonard Fournette, or A.J. Dillon. His strengths lie in his ability to handle volume between the tackles, break tackles, and finish runs, giving him a solid floor for rushing production and touchdown potential. However, his value in .5 PPR formats is currently capped by significant weaknesses in the passing game. Both his pass protection technique/consistency and his receiving technique (prone to clap-attacks) need considerable refinement for him to evolve beyond an early-down/goal-line role.   
 Strengths (Highlighting .5 PPR Relevance):
 Size, Power &amp; Contact Balance: Mafah possesses an excellent power back frame, allowing him to move piles, run through arm tackles, absorb contact (direct and indirect), and finish effectively. This projects well for handling volume and securing goal-line carries (TD upside).   
 Vision &amp; Patience: Demonstrates good patience setting up blocks on various schemes (zone, gap) and reads penetration/cutback lanes well. Decisive when hitting the hole. Maximizes rushing opportunities.
-Adequate Athleticism for Size: While not a burner, he has enough acceleration and long speed to hit creases quickly, get into the secondary, and occasionally "flip the field" for chunk gains.
+Adequate Athleticism for Size: While not a burner, he has enough acceleration and long speed to hit creases quickly, get into the secondary, and occasionally flip the field for chunk gains.
 Weaknesses (Highlighting .5 PPR Impact):
 Pass Protection: Significant Weakness. Profile notes issues outweigh assets currently. He can be late identifying assignments, overextends on strikes (leaving him off balance), lacks consistent punch power, and can be beaten by savvy rushers. This severely limits his trustworthiness and likely snaps on passing downs, hindering PPR value.
-Receiving Technique: Significant Weakness. Prone to "clap-attacking" targets, especially those requiring extension or awkward angles. Fights the ball unnecessarily. This unreliability as a pass-catcher limits his effectiveness even as a potential outlet, capping his PPR ceiling.
+Receiving Technique: Significant Weakness. Prone to clap-attacking targets, especially those requiring extension or awkward angles. Fights the ball unnecessarily. This unreliability as a pass-catcher limits his effectiveness even as a potential outlet, capping his PPR ceiling.
 Inconsistent Power Application: Sometimes fails to align hips properly into contact, reducing his effectiveness in collisions he should physically dominate.
 Ball Security (Minor Trend): While his career rate is acceptable (1 fumble per 90 touches), an uptick in fumbles during the 2023 season warrants monitoring.
 Player Comparison Spectrum:
@@ -1943,21 +1958,6 @@
 Mention: Stephen Davis: An aspirational comparison highlighting elite power potential if Mafah fully refines that aspect.
 Fantasy Outlook (.5 PPR - As of April 28, 2025):
 Now on an NFL roster, Phil Mafah profiles primarily as an early-down and short-yardage/goal-line specialist early in his career. His size, power, and rushing acumen provide a solid foundation for fantasy value through carries and touchdowns. However, his .5 PPR upside is significantly limited by major deficiencies in both pass protection and receiving technique. Until he makes substantial improvements in these areas, he is unlikely to command significant passing-down work or reception volume. Expect him to function within a committee, offering RB2/Flex value based on rushing workload and TD opportunities, rather than as a high-volume PPR contributor.</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>James Conner - Leonard Fournette - X - AJ Dillon</t>
-  </si>
-  <si>
-    <t>Rotational starter</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>Ray Rice - Jaylen Warren - X / Ray Davis</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3910,7 +3910,7 @@
         <v>135</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3927,7 +3927,7 @@
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G55">
         <v>81.900000000000006</v>
@@ -3936,7 +3936,7 @@
         <v>135</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3950,10 +3950,10 @@
         <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G56">
         <v>73.8</v>
@@ -3962,7 +3962,7 @@
         <v>152</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -3979,7 +3979,7 @@
         <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G57">
         <v>83</v>
@@ -3988,7 +3988,7 @@
         <v>135</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4005,7 +4005,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G58">
         <v>77.400000000000006</v>
@@ -4014,7 +4014,7 @@
         <v>154</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4031,7 +4031,7 @@
         <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G59">
         <v>73.8</v>
@@ -4040,7 +4040,7 @@
         <v>152</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4057,7 +4057,7 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G60">
         <v>75.099999999999994</v>
@@ -4066,7 +4066,7 @@
         <v>135</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4083,7 +4083,7 @@
         <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G61">
         <v>81.5</v>
@@ -4092,7 +4092,7 @@
         <v>135</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4106,10 +4106,10 @@
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G62">
         <v>80.7</v>
@@ -4118,7 +4118,7 @@
         <v>135</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4135,7 +4135,7 @@
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G63">
         <v>83.4</v>
@@ -4144,7 +4144,7 @@
         <v>135</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4158,10 +4158,10 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G64">
         <v>83.4</v>
@@ -4170,7 +4170,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
@@ -4184,19 +4184,19 @@
         <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G65">
         <v>82.3</v>
       </c>
       <c r="H65" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
